--- a/bnb/data/curated_data/MuseumGaleries_data.xlsx
+++ b/bnb/data/curated_data/MuseumGaleries_data.xlsx
@@ -441,42 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Shortdescription</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>TitleEN</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ShortdescriptionEN</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Adres</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Latitude</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Longitude</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -501,41 +501,41 @@
           <t>460d7921-1fba-42a6-9c9a-b8fc15c1b48e</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>52.375899</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.89662</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Museum of Medieval Torture Instruments</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>In de Middeleeuwen was marteling een bekende straf voor vrijwel alle misdaden. Vari?rend van verkrachting tot moord  maar vooral voor ketterij. De gebruikte martelmethode hing af van zowel de misdaad als de sociale status van de veroordeelde.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Medieval Torture Museum</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Medieval Torture Museum has a collection of more than 100 devices used for torture in medieval times. This unique collection of photos  drawings and instruments of torture reveals the grim character of the middle ages. </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Damrak 33</t>
         </is>
-      </c>
-      <c r="H2" t="n">
-        <v>52.375899</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.89662</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,41 +559,41 @@
           <t>ab4fd0ea-aeda-487d-97c8-f3c33d401250</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>52.375658</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.880696</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Electric Ladyland / Fluorescent Art Museum</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Het enige museum ter wereld dat in het teken staat van fluorescerende kunst. Een deel van dit kleine museum bestaat uit een grote fluorescerende omgeving waar bezoekers zelf deel uitmaken van een fluor kunstwerken. In het andere deel is er een permanente tentoonstelling van fluorescerende mineralen  kunstwerken uit de jaren '50 en andere lichtgevende objecten te zien.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Electric Ladyland (fluorescent art museum)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>As the only museum of its kind in the world  Electric Ladyland is dedicated to fluorescent art. The museum displays a permanent collection of fluorescent minerals  fluorescent artwork from the 1950s and other glowing artefacts. They also have a ?Flourescent Environment? where visitors can participate in creating a sculptural piece of illuminated art.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Tweede Leliedwarsstraat 5</t>
         </is>
-      </c>
-      <c r="H3" t="n">
-        <v>52.375658</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.880696</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -617,41 +617,41 @@
           <t>48863d8e-2a32-4c3e-a9dd-80780ba2b37d</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>52.349378</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.856705</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Electrische Museumtramlijn</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>De Electrische Museumtramlijn doet het verleden herleven met een unieke collectie historische trams. De trams zijn gerestaureerd en je kunt er echt in rijden. Neem ook een kijkje in het depot waar de oude trams gerestaureerd worden.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Tramway Museum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>The Tramway Museum (Elektrische Museumtramlijn)  of Amsterdam revives the past with a unique collection of historic trams. The trams are restored to full working order  and you can even ride in them. You can also look in the depot to see on-going restoration work on several historic trams.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Amstelveenseweg 264</t>
         </is>
-      </c>
-      <c r="H4" t="n">
-        <v>52.349378</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.856705</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -675,41 +675,41 @@
           <t>c5347d10-5252-4ebd-8650-84ffb9af5675</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>52.368024</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.910852</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>De Burcht/ Nationaal Vakbondsmuseum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">De Burcht  het oudste vakbondsgebouw van Nederland  is door Hendrik Petrus Berlage ontworpen in opdracht van de toentertijd rijkste en grootste vakbond van Nederland  de Algemeene Nederlandsche Diamantbewerkersbond.   </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>De Burcht / Nationaal Vakbondsmuseum (Trade Union Museum)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>De Burcht is the oldest trade union building in the whole of the Netherlands. This impressive structure was designed by Hendrik Petrus Berlage in 1899  and was commissioned by the Algemeene Nederlandsche Diamantwerkers Bond (ANDB). At the time  the ANDB (diamond workers union) was the country?s largest and richest trade union.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Henri Polaklaan 9</t>
         </is>
-      </c>
-      <c r="H5" t="n">
-        <v>52.368024</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.910852</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -725,41 +725,41 @@
           <t>40c3617a-f679-43a2-9fec-0fe661fdf798</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>52.375218</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.89596</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Amsterdam Conference Centre Beurs van Berlage</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">Amsterdam Conference Centre Beurs van Berlage in Amsterdam is een mijlpaal in de geschiedenis van de architectuur. Het gebouw stamt uit dezelfde tijd als bijvoorbeeld het Centraal Station en het Rijksmuseum. Het bijzondere van de Beurs van Berlage is dat tachtig procent van het gebouw authentiek is. </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Amsterdam Conference Centre Beurs van Berlage</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>The Beurs van Berlage opened in 1903 and housed Amsterdam?s stock exchange. It gets its name from renowned Dutch architect Hendrik Berlage who was responsible for its design. Incorporating a range of traditional building styles  the Beurs is now considered the Netherlands' most important example of 20th-century architecture.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Damrak 243</t>
         </is>
-      </c>
-      <c r="H6" t="n">
-        <v>52.375218</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.89596</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -783,41 +783,41 @@
           <t>468c504e-2c9d-4d69-8327-5bb63a4ab627</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>52.370415</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.891297</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Amsterdam Museum</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Het Amsterdam Museum is het stadsmuseum van Amsterdam  een ontmoetingsplek van en voor Amsterdammers en h?t museum voor mensen die de hoofdstad beter willen leren kennen. Het Amsterdam Museum ligt midden in het centrum van de stad  met een ingang in de Kalverstaat en een ingang in de Sint Luci?nsteeg.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Amsterdam Museum</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>The Amsterdam Museum offers an expansive collection of exhibitions and items that retell the compelling story of the Dutch capital  from its earliest developments  through the surge of growth in the Golden Age and up to the present.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Kalverstraat  92</t>
         </is>
-      </c>
-      <c r="H7" t="n">
-        <v>52.370415</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.891297</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -841,41 +841,41 @@
           <t>d52f95a0-ea94-43c0-a8d7-1885da01970f</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>52.375106</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.897789</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Appie Baantjer Museum</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">Caf? Heffer in de Amsterdamse Warmoesstraat is een museumcaf? met allerlei Baantjerattributen. Het museum ligt vlakbij het voormalige politiebureau Warmoesstraat waar de oud-rechercheur jaren heeft gewerkt en de inspiratie voor zijn boeken opdeed. </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Appie Baantjer Museum</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Appie Baantjer was a well-known Dutch detective and author whose life and works later formed the basis for ?Baantjer?  a popular Dutch television programme. Caf? Heffer in Amsterdam?s Warmoesstraat hides a small museum dedicated to Baantjer. The upper level still serves as a bar  but the basement houses a permanent exhibition dedicated to Baantjer. You can visit this museum free of charge.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Warmoesstraat  66</t>
         </is>
-      </c>
-      <c r="H8" t="n">
-        <v>52.375106</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.897789</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -899,41 +899,41 @@
           <t>664ffdf6-caa5-4182-9ef7-ada9332d4786</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>52.385337</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.891909</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Architectuurcentrum Amsterdam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Het futuristische gebouw van Architectuurcentrum Amsterdam is een opvallende verschijning aan het Oosterdok  en alleen daarom al een bezoekje waard. Het pand huisvest een uitgebreid informatiepunt over Amsterdamse architectuur. In de galerie vinden wisselende exposities plaats en er is bovendien een uitgebreid assortiment aan architectuurboeken en -kaarten aanwezig.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Amsterdam Centre for Architecture</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>The futuristic-looking Amsterdam Centre for Architecture building is a striking presence on the Oosterdok and is in itself worth a visit. It houses the architecture centre  a retail gallery and an information point on Amsterdam?s architecture.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Prins Hendrikkade  600</t>
         </is>
-      </c>
-      <c r="H9" t="n">
-        <v>52.385337</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.891909</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -957,41 +957,41 @@
           <t>c07649d4-9d95-468c-94c3-45d0dcb63332</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>52.368534</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.886355</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Bijbels Museum</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Het Cromhouthuis  een prachtig grachtenhuis uit de Gouden Eeuw  vormt de thuisbasis van het Bijbels Museum. Het museum is een ontmoetingsplaats van Bijbel  kunst en cultuur. Bijzondere collectiestukken  persoonlijke verhalen en een schat aan achtergrondinformatie nemen de bezoeker mee op reis door de wereld van de Bijbel.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Bijbelsmuseum (Biblical Museum)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Amsterdam's Bijbelsmuseum (Biblical Museum) illustrates life in biblical times with archaeological discoveries and other artefacts. Clay tablets and fragments of papyrus and archaeological remains tell the fascinating story of how the Bible came into existence  and the influence that the Bible has had on Dutch society throughout the ages.</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Herengracht 366-368</t>
         </is>
-      </c>
-      <c r="H10" t="n">
-        <v>52.368534</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.886355</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1015,41 +1015,41 @@
           <t>257044c1-dc5b-47fd-9db2-349220309326</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>52.376381</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.884267</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Amsterdam Tulip Museum</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">Tulpen. Typisch Hollands  of toch niet helemaal? Waar komt de tulp vandaan en hoe is deze bloem in Nederland verzeild geraakt?  </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Amsterdam Tulip Museum</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Located in the Jordaan district  the Amsterdam Tulip Museum pays tribute to this delicate flower that has ignited great passion and envy over the centuries. The museum details Holland's fascinating horticultural story  including a phenomenon known as &amp;quot:Tulipomania&amp;quot:.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Prinsengracht 116</t>
         </is>
-      </c>
-      <c r="H11" t="n">
-        <v>52.376381</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.884267</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1073,41 +1073,41 @@
           <t>286711d8-02de-4ea3-9767-b626c52fdbb9</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>52.3685</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.893071</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Allard Pierson Museum</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">Het Allard Pierson Museum is het archeologisch museum van de Universiteit van Amsterdam. De antieke beschavingen uit het Oude Egypte  het Nabije Oosten  de Griekse wereld  Etruri? en het Romeinse Rijk komen in het museum opnieuw tot leven. </t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Allard Pierson Museum</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Located in the heart of Amsterdam  this archaeological museum was inspired by the career of its namesake  Professor Allard Pierson. Here you?ll find artefacts from around the world  spanning thousands of years of human civilisation.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Oude Turfmarkt 127</t>
         </is>
-      </c>
-      <c r="H12" t="n">
-        <v>52.3685</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.893071</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1131,41 +1131,41 @@
           <t>0d8774c5-1ee1-4e18-93c9-7c4d8a10e98a</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>52.36384</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.894337</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Museum Geelvinck</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">In museum Geelvinck ontdek je de pracht en praal van een uniek grachtenpand aan de Keizersgracht. De Keizersgracht is onderdeel van de grachtengordel van Amsterdam en behoort tot het Werelderfgoed van UNESCO. Museum Geelvinck is vanaf maandag 21 december 2015 gesloten wegens verhuizing. </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Museum Geelvinck</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>In 1687  Albert Geelvinck commissioned the construction of the Geelvinck Hinlopen Huis to celebrate his marriage to the much younger Sara Hinlopen. Geelvinck came from a very wealthy family  and his private canal mansion now houses the opulent Museum Geelvinck. Enter through the former coach house and the lush secluded garden to experience the hidden wealth of Amsterdam?s former bourgeois elite.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Keizersgracht 633</t>
         </is>
-      </c>
-      <c r="H13" t="n">
-        <v>52.36384</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.894337</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1189,41 +1189,41 @@
           <t>b86d1c3c-1e51-4581-bea1-35448a73f80c</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>52.3774</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.891049</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Multatuli Museum</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Het geboortehuis van de wereldberoemde schrijver Multatuli (1829 -1887) met een studiecentrum en een tentoonstelling rond het leven en werk van de schrijver.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Multatuli Museum</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>In 1820  the world-famous writer Eduard Douwes-Dekker (1829-1887)  better known as Multatuli  was born on the Korsjespoortsteeg in Amsterdam. His birthplace is now home to Amsterdam?s Multatuli Museum. Multatuli is best known for his novel ?Max Havelaar? which was openly critical of Dutch colonial policies in the East Indies.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Korsjespoortsteeg 20</t>
         </is>
-      </c>
-      <c r="H14" t="n">
-        <v>52.3774</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.891049</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1247,41 +1247,41 @@
           <t>641f98f4-67be-4ef8-8a28-396928877445</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>52.362316</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.883228</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Schaakmuseum Max Euwe-Centrum</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Bij het Max Euwe-Centrum vindt de bezoeker alles op schaakgebied. Er is een  permanente tentoonstelling over het leven en werk van Max Euwe  Nederlands enige  wereldkampioen schaken.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Max Euwe Centrum (chess museum)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t xml:space="preserve">The Max Euwe Centrum is Amsterdam's chess museum. Named after the former Dutch chess champion  Max Euwe  the museum features a permanent exhibition on the life of Max Euwe  a chess library  vast archives and chess computers waiting to challenge visitors to a game. </t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Max Euweplein 30A-I</t>
         </is>
-      </c>
-      <c r="H15" t="n">
-        <v>52.362316</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.883228</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1305,41 +1305,41 @@
           <t>af358edb-a519-4bb2-9dc5-ba51b6f87875</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>52.373891</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.899247</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Erotic Museum</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Collectie erotische kunst door de eeuwen heen van oude meesters tot hedendaagse kunstenaars. Er is een gevarieerd aanbod: sculpturen  aardewerk  schilderijen  tekeningen  foto's en ander beeldmateriaal.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Erotic Museum</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>As you might expect  the Erotic Museum is located in the middle of Amsterdam?s red light district. The museum looks at eroticism in all its forms throughout the ages. The collection includes sculptures  paintings  drawings  photographs and other artwork. If you want a souvenir to remember your visit  there?s also a gift shop in the museum.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Oudezijds Achterburgwal 54</t>
         </is>
-      </c>
-      <c r="H16" t="n">
-        <v>52.373891</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.899247</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1363,41 +1363,41 @@
           <t>9ea63c64-5e99-43b3-a6b6-f05bf70c3c29</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>52.371738</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.896984</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Hash Marihuana &amp; Hemp Museum</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Het Hash Marihuana Hemp Museum biedt bezoekers de kans om zich uitgebreid te laten informeren over het huidige en het historische gebruik van de cannabis plant  als ook over de geneeskundige  de religieuze en de culturele mogelijkheden.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Hash Marihuana &amp; Hemp Museum</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Amsterdam?s Hash Marihuana Hemp Museum offers visitors extensive documentation and historical facts about the cannabis plant. Visitors can learn how this versatile plant contributed to developments in clothing  medicine  sea travel  agriculture and more. There are informative displays about hash?s medicinal  religious and cultural applications. The Hash Marihuana Hemp Museum shows how cannabis and hemp (which are in fact simply different strains of the same plant) have been part of everyday life for thousands of years.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Oudezijds Achterburgwal 148</t>
         </is>
-      </c>
-      <c r="H17" t="n">
-        <v>52.371738</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.896984</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1421,41 +1421,41 @@
           <t>ef903344-0de1-4127-90dc-13db968e1875</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>52.363957</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.893294</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Foam Fotografiemuseum Amsterdam</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">Foam is d? plek  in het centrum van Amsterdam  voor fotografie in al haar gedaanten: van documentaire tot mode  van eigentijds tot historisch. Een museum met een internationale allure. </t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Foam</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">Foam is an internationally renowned Amsterdam museum that exhibits all genres of photography in a beautiful canal-side setting. As well as displaying a wide variety of works  it acts as a creative hub where photographers can meet and participate in forums and symposiums. </t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Keizersgracht 609</t>
         </is>
-      </c>
-      <c r="H18" t="n">
-        <v>52.363957</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.893294</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1479,41 +1479,41 @@
           <t>0966a3f5-364b-4d54-a180-655fba8b312e</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>52.365534</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.891529</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Kattenkabinet</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Het Kattenkabinet is opgericht ter nagedachtenis aan de rode kater John Pierpont Morgan (1966-1983). Deze bijzondere kater was gedurende zijn hele leven de eigenzinnige metgezel van Bob Meijer  de oprichter van het Kattenkabinet.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Kattenkabinet (Cat Cabinet)</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>The Kattenkabinet (Cat Cabinet) is located in a lovely canal house in Amsterdam. This museum is dedicated entirely to the role of cats in art and culture throughout history. Paintings  sculptures  posters and other cat-related objects are on display  watched over by some friendly felines.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Herengracht 497</t>
         </is>
-      </c>
-      <c r="H19" t="n">
-        <v>52.365534</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.891529</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1537,41 +1537,41 @@
           <t>6606b5e1-e97c-444f-ba33-667863d96e3a</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>52.375081</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.897912</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Koffie- en Theemuseum Geels &amp; Co</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">Bij Geels &amp; Co vind je een grote verzameling koffiemolens  kannen  branders en ambachtelijke werktuigen. Het museum is gevestigd in de winkel Geels &amp; Co waar je vele soorten koffie en thee kunt kopen. </t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Geels &amp; Co Coffee and Tea Museum</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>The Coffee and Tea Museum is a small attraction above the Geels &amp; Co shop  which sells freshly-roasted coffee as well as a large selection of tea. The shop has been run for almost 150 years by Amsterdam?s Geels family and has a warm  traditional atmosphere.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Warmoesstraat 67</t>
         </is>
-      </c>
-      <c r="H20" t="n">
-        <v>52.375081</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.897912</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1595,41 +1595,41 @@
           <t>fa8d207c-84e9-44dc-ad9a-2fa2cc5b6a86</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>52.373127</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.89008</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Koninklijk Paleis</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Het Koninklijk Paleis Amsterdam is ??n van de drie paleizen die gebruikt worden door de koninklijke familie. De familie gebruikt het Paleis tijdens staatsbezoeken  prijsuitreikingen en voor andere offici?le ontvangsten. Op de momenten dat de koninklijke familie geen gebruik maakt van het paleis is het gebouw open voor publiek.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Koninklijk Paleis (Royal Palace)</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>The Koninklijk Paleis (Royal Palace) on Amsterdam?s Dam Square is one of three palaces still in use by the Dutch royal family. It is used for state visits  award ceremonies and other official receptions. When the palace is not being used by the royal family  it is open to the public. Visitors can explore the magnificent interior and discover the rich history of the building.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Dam</t>
         </is>
-      </c>
-      <c r="H21" t="n">
-        <v>52.373127</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.89008</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1653,41 +1653,41 @@
           <t>95404120-70b7-427f-bd55-485b7bd144a5</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>52.367349</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.903915</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Joods Historisch Museum</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Synagogen  markante gebouwen  monumenten en bijzondere beelden kleuren het straatbeeld van de oude Amsterdamse jodenbuurt. Midden in deze buurt bevindt zich het Joods Cultureel Kwartier. Tijdens een wandeling door het kwartier kom je langs het Joods Historisch Museum met haar Kindermuseum  de kolossale Portugese Synagoge en de Hollandsche Schouwburg. Vier culturele instellingen - te bezoeken met ??n toegangsticket -  die samen een uniek beeld geven van het joodse leven van toen en nu.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Jewish Historical Museum</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>The Jewish Historical Museum is located at the heart of Amsterdam's former Jewish quarter. Although not as famous as the bigger art museums  it is in fact one of the city?s most acclaimed museums due to its incisive programming. Housed in four former Ashkenazi synagogues dating from the 17th and 18th centuries  its permanent exhibition reflects the versatility of Judaism in the past and present. It also has its own dedicated children's museum with exceptional educational facilities.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Nieuwe Amstelstraat 1</t>
         </is>
-      </c>
-      <c r="H22" t="n">
-        <v>52.367349</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.903915</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1711,41 +1711,41 @@
           <t>56031fef-3398-4d0a-910b-956f8e6ea0ec</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>52.365511</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.89913</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Museum Willet-Holthuysen</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">Bezoek Museum Willet-Holthuysen en ervaar hoe het was om te wonen in een grachtenhuis aan de Herengracht in Amsterdam. </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Willet-Holthuysen Museum</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>The Willet-Holthuysen Museum in Amsterdam had an interesting start. In 1895 Mrs. Willet-Holthuysen bequeathed her 17th-century canal house to the city of Amsterdam in her will  on the condition that it was preserved and opened as a museum. Her wish has been faithfully observed for over a century - the house has been turned into a beautiful museum.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Herengracht 605</t>
         </is>
-      </c>
-      <c r="H23" t="n">
-        <v>52.365511</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.89913</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1769,41 +1769,41 @@
           <t>b628d090-f2e1-4ca5-9976-6b46b2347445</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>52.371563</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.884163</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Nederlands Instituut voor Mediakunst -  Montevideo/Time Based Art</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">Het Nederlands Instituut voor Mediakunst  Montevideo/Time Based Arts heeft als doel een vrije ontwikkeling  toepassing  verspreiding van  en reflectie op nieuwe technologie?n binnen de beeldende kunst te bevorderen. </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Nederlands Instituut voor Mediakunst (Netherlands Media Art Institute)</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>The Netherlands Media Art Institute (NIMk) in Amsterdam promotes the development  usage and distribution of new technologies in the visual arts. NIMk supports media art in three core areas: presentation  research and conservation. The institute?s facilities provide extensive services for artists and art institutions and they also frequently organise exhibitions and educational activities.</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Keizersgracht 264</t>
         </is>
-      </c>
-      <c r="H24" t="n">
-        <v>52.371563</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.884163</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1827,41 +1827,41 @@
           <t>4e39ce81-1b8f-48d4-ac7c-3dc8062fe1a3</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>52.375105</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.899487</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Museum Ons' Lieve Heer op Solder</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Ons' Lieve Heer op Solder is ??n van de oudste en meest bijzondere musea van Amsterdam. Ga op ontdekking in een zeldzaam goed bewaard grachtenhuis uit de Gouden Eeuw. Smalle gangen en trappen leiden naar historisch ingerichte woonvertrekken  keukens en bedstedes en eindigt in het hoogtepunt van het museum: een complete kerk op zolder.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Museum Ons? Lieve Heer op Solder</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Tucked away in the heart of Amsterdam?s inner city lies a small marvel: Our Lord in the Attic Museum. Explore the narrow corridors of this uniquely preserved seventeenth-century house and climb the stairs to discover living rooms  kitchens and bedsteads furnished in Dutch Golden Age style  leading up to the literal highpoint of the museum: an entire church in the attic.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Oudezijds Voorburgwal 38</t>
         </is>
-      </c>
-      <c r="H25" t="n">
-        <v>52.375105</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.899487</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1885,41 +1885,41 @@
           <t>40445ab5-a18b-4c50-baa4-b04ac61e6f47</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>52.343013</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.85433</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Olympic Experience</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">Bij de Olympic Experience kom je alles te weten over het verleden  heden en de toekomst van de Nederlandse sport. Maak een rondreis door de catacomben van het Olympisch Stadion en ervaar wat het is om topsporter te worden  te zijn en te blijven. Deze locatie is permanent gesloten. </t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Olympic Experience</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>The Olympic Experience is an interactive visitor?s centre that presents the past  present and future of Dutch sports through an innovative multimedia exhibition. It is housed inside Amsterdam?s monumental Olympisch Stadion (Olympic Stadium) that hosted the Summer Games in 1928.</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Olympisch Stadion 2</t>
         </is>
-      </c>
-      <c r="H26" t="n">
-        <v>52.343013</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.85433</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1943,41 +1943,41 @@
           <t>fb1b647d-4354-4d12-9021-10bee921f2e2</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>52.372153</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.887754</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Stichting Nationaal Brilmuseum Amsterdam</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Dit museum is een reis door de tijd van 700 jaar kunst  cultuur en geschiedenis van de bril  gepresenteerd in twee oogverblindende museumzalen.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Brilmuseum (National Museum of Spectacles)</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>The Brilmuseum (National Museum of Spectacles) grew out of a private collector?s passion for optometric objects. Today  the collection is displayed on two floors of a lovely 17th century building located in Amsterdam's charming Negen Straatjes (Nine Streets) district. The museum provides a unique overview of the 700-year history of spectacles  including the changing fashions and technologies over the centuries.</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>Gasthuismolensteeg 7</t>
         </is>
-      </c>
-      <c r="H27" t="n">
-        <v>52.372153</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.887754</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2001,41 +2001,41 @@
           <t>8870c113-5e1a-4bdb-8fdf-0e6abd58454e</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>52.375538</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.882737</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Theo Thijssen Museum</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Het Theo Thijssen Museum is gewijd aan de Amsterdamse schrijver  onderwijzer  vakbondsman en sociaal-democratisch politicus Theo Thijssen (1879-1943). Hij is vooral bekend als auteur van de roman Kees de jongen. Het Theo Thijssen Museum is gevestigd op de begane grond van Thijssens geboortehuis  Eerste Leliedwarsstraat 16.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Theo Thijssen Museum</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Theo Thijssen was a popular Dutch writer  teacher and politician who was best known as the author of the novel ?Kees de Jongen?. The Theo Thijssen Museum is located on the Eerste Leliedwarstraat in Amsterdam  on the ground floor of the house where he was born. His cosy former home is typical of the style of houses in Amsterdam?s Jordaan district.</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Eerste Leliedwarsstraat 16</t>
         </is>
-      </c>
-      <c r="H28" t="n">
-        <v>52.375538</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.882737</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2059,41 +2059,41 @@
           <t>ac42ecf9-b9ec-4b25-89ec-52e48790f3ca</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>52.365002</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.882108</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Greenbox Museum</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Greenbox Museum of Contemporary Art from Saudi Arabia is een wonderkamer in Amsterdam met moderne kunst uit Saoedi-Arabi?. Het is gevestigd naast het Leidseplein op de bovenste verdieping van het gebouw Studio Korte Leidse. Het museum verzamelt werk van de avant garde van Saoedi-Arabi? en publiceert op internet een encyclopedie van Saoedische kunstenaars.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Greenbox Museum</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>The Greenbox Museum is one of Amsterdam?s smallest art museums  located in the heart of the city near the Leidseplein. The museum is the first of its kind in the world  focusing solely on contemporary art from Saudi Arabia. This private collection of avant garde works from Saudi Arabia often has a special link to the Muslim world  as Saudi Arabia is the home to Mecca.</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Korte Leidsedwarsstraat 12</t>
         </is>
-      </c>
-      <c r="H29" t="n">
-        <v>52.365002</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.882108</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2117,41 +2117,41 @@
           <t>444100a8-fb81-4666-b6bd-dc3bc01fa0e8</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>52.359584</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.924214</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Witsenkamer</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">In het Witsenhuis bevindt zich stijlkamer  oorspronkelijke salon van schilder  etser en fotograaf Willem Witsen (1860-1923)  </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Witsenhuis - Witsenkamer</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>The Witsenhuis (Witsen house) was the residence of Willem Witsen  a wealthy Dutch artist. When his second wife Augusta Maria Witsen-Schorr passed away in 1943  she bequeathed the house and its contents to the state. Located at Oosterpark 82  the house has now been completely restored and turned into a museum.</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Oosterpark 82A</t>
         </is>
-      </c>
-      <c r="H30" t="n">
-        <v>52.359584</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.924214</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2175,41 +2175,41 @@
           <t>163610f3-3d64-42b3-9528-96404cd16058</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>52.295008</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.957898</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Museum Vrolik</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Museum Vrolik kan met recht een van de meest ongewone musea in Amsterdam genoemd worden. Het museum is gevestigd in de Universiteit van Amsterdam (UVA) en huisvest een collectie van buitengewone medische items verzameld door de 19e eeuwse medische professor Gerardus Vrolik en zijn zoon Willem. Bezoekers kunnen vanaf dit jaar in het geheel gerenoveerde Museum Vrolik een bijzondere ontdekkingstocht maken door het (ongewone) menselijk lichaam.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Museum Vrolik</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Certainly one of Amsterdam?s more unusual museums  Museum Vrolik is home to an extraordinary collection of medical case studies  accrued by 19th-century medical professor Gerardus Vrolik  his son Willem and numerous other medical professionals.</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Meibergdreef 9</t>
         </is>
-      </c>
-      <c r="H31" t="n">
-        <v>52.295008</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.957898</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2233,41 +2233,41 @@
           <t>ee20f723-b2eb-4d72-9485-10020cad4809</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>52.363563</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.867388</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>New Art space Amsterdam</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Kunstinstelling met exposities van (inter)nationale kunstenaars. Je vindt hier de nieuwste ontwikkelingen in de hedendaagse beeldende kunst  film  fotografie  design  vormgeving  architectuur en andere kunstvormen. Er is ook een film- en een muziekprogramma.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>New Art space Amsterdam</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>A multifunctional  multidisciplinary space devoted to the latest developments in the area of contemporary visual arts  film  photography  design  architecture and other art forms.</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Arie Biemondstraat 101</t>
         </is>
-      </c>
-      <c r="H32" t="n">
-        <v>52.363563</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.867388</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2291,41 +2291,41 @@
           <t>bda67090-7df7-47bd-aae8-ac27935c43ef</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>52.362614</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.891803</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Stadsarchief Amsterdam - De Bazel</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>In het Stadsarchief ligt een ware schat aan informatie opgeslagen. Het archief bevat 32 km aan documentatie over de stad Amsterdam en van particulieren en bedrijven.  Het archief maakt deze collectie toegankelijk zodat de geschiedenis van Amsterdam niet verloren gaat. Je kunt bij het Stadsarchief Amsterdam alles over Amsterdam en de Amsterdammers vragen  ook als je niet weet hoe een archief werkt.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Amsterdam City Archives</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>With archives stretching over 32 kilometres long  the Stadsarchief (Amsterdam City Archives) collects and protects documents of historical relevance for the city of Amsterdam while organising intriguing activities and temporary exhibitions.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Vijzelstraat 32</t>
         </is>
-      </c>
-      <c r="H33" t="n">
-        <v>52.362614</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.891803</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2349,41 +2349,41 @@
           <t>4fb89255-8a30-4ca4-b043-8cb7b37ab471</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>52.356429</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.879801</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Stedelijk Museum</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Het Stedelijk Museum  gelegen aan het Museumplein in Amsterdam  is het grootste museum met moderne en hedendaagse moderne kunst in Nederland. Het historische museumgebouw met rode bakstenen dateert uit 1895 en de collectie van het museum bestaat onder meer uit bijzondere kunstwerken van wereldberoemde moderne kunstenaars  onder wie Nederlandse kunstenaars uit de 20e eeuw.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Stedelijk Museum</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t xml:space="preserve">Situated on Museumplein  where it first opened in 1895  Amsterdam?s Stedelijk Museum is the largest Dutch museum dedicated to modern and contemporary art and design. The collection contains extraordinary pieces of art by world-renowned artists  including a great number of works by major twentieth-century Dutch artists. </t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Museumplein 10</t>
         </is>
-      </c>
-      <c r="H34" t="n">
-        <v>52.356429</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.879801</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2407,41 +2407,41 @@
           <t>38c467a9-e4b6-4840-96e1-c7ae4bbffdcb</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>52.372869</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.881413</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Stedelijk Museum Bureau Amsterdam</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Stedelijk Museum Bureau Amsterdam (SMBA) is een onderdeel van het Stedelijk Museum Amsterdam en gevestigd in het centrum van de stad. SMBA richt zich op hedendaagse kunst in de Amsterdamse context en cre?ert daarvoor een internationaal podium door middel van tentoonstellingen  lezingen en debatten  publicaties en residency-programma's.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Stedelijk Museum Bureau Amsterdam (SMBA)</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Stedelijk Museum Bureau Amsterdam (SMBA) is the Stedelijk Museum Amsterdam?s project space located in the centre of the city. SMBA?s objective is to present contemporary art from an Amsterdam perspective. To further this objective  they organise exhibitions  lectures and debates  create publications and develop residency programmes.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Rozenstraat 59</t>
         </is>
-      </c>
-      <c r="H35" t="n">
-        <v>52.372869</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.881413</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2465,41 +2465,41 @@
           <t>8e5cb91b-a19a-464f-b3df-e221bad66009</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>52.376588</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.897279</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Sexmuseum Amsterdam Venustempel</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>De Venustempel is 's werelds eerste en oudste sexmuseum. Het is een toonaangevend museum op het gebied van de zinnelijke liefde met een omvangrijke collectie erotische beelden  schilderijen  objecten  opnames  foto's en zelfs attracties.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Venustempel Sex Museum</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Located in the centre of Amsterdam  the Venustempel (temple of Venus) is the world's first and oldest sex museum. The museum looks at many aspects of sensual love through the ages  displaying an extensive collection of erotic pictures  paints  recordings  photographs and more. The vast collection was personally gathered by the museum?s owners and is now on permanent display in their 17th-century property on the Damrak.</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Damrak 18</t>
         </is>
-      </c>
-      <c r="H36" t="n">
-        <v>52.376588</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.897279</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2523,41 +2523,41 @@
           <t>5ddcd027-3c21-4b14-ad2b-a05cf19bea6f</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>52.374186</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.912626</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Vereniging Museumhaven Amsterdam</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>In de Museumhaven Amsterdam liggen historische schepen van rond de vorige eeuwwisseling. Op de kade staan oude werfgereedschappen. Een folder van een kadewandeling is gratis beschikbaar.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Vereniging Museumhaven (Harbour Museum Society)</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t xml:space="preserve">The Vereniging Museumhaven (Harbour Museum Society) is a sheltered port area in Amsterdam where 20 historical ships are docked. On the quays  old shipyard equipment is also on display. A complimentary brochure is available to accompany your walk down the quay. </t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Oosterdok 12</t>
         </is>
-      </c>
-      <c r="H37" t="n">
-        <v>52.374186</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.912626</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2581,41 +2581,41 @@
           <t>787d68da-e0ac-4a39-8ae5-09784458f728</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>52.355274</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.900699</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Amsterdam Tattoo Museum</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">Amsterdam Tattoo Museum besteedt aandacht aan tatoeage bij verschillende culturen en volkeren over de hele wereld  vanaf de prehistorie tot het heden. </t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Amsterdam Tattoo Museum</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t xml:space="preserve">Amsterdam Tattoo Museum will open it's doors fall 2011. </t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Van Woustraat 78HS</t>
         </is>
-      </c>
-      <c r="H38" t="n">
-        <v>52.355274</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.900699</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2639,41 +2639,41 @@
           <t>0a7ae1e8-f698-4526-afe6-7d6ea33b4b36</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>52.3685</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.893071</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Bijzondere Collecties</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Bijzondere Collecties is een onderdeel van de Bibliotheek van de Universiteit van Amsterdam. De collectie omvat oude teksten  prenten  foto's  atlassen en nog veel meer zaken die de moeite van het bewaren waard zijn. De collectie wordt zorgvuldig samengesteld door curatoren. Bezoekers kunnen rondkijken in de Bijzondere Collecties. Er zijn regelmatig tentoonstellingen.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Bijzondere Collecties (The Special Collections Department)</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>The Special Collections Department is part of the Library of the University of Amsterdam. This department administers early printed books  modern special editions  manuscripts  maps and visual material such as prints posters and photographs.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Oude Turfmarkt 129</t>
         </is>
-      </c>
-      <c r="H39" t="n">
-        <v>52.3685</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.893071</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2697,41 +2697,41 @@
           <t>ff2a5d4e-ac09-43f5-be40-bcba15ff3851</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>52.376381</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.884267</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Amsterdam Cheese Museum</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Nederlandse kaas bestaat al ruim 600 jaar en heeft een lange traditie. De namen van de kazen zijn vaak afkomstig van Nederlandse steden - Gouda  Edam  Leerdammer  Leiden  Maaslander  Maasdam en natuurlijk de 'Old Amsterdam'.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Amsterdam Cheese Museum</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Dutch cheese has a more than 600 years long tradition and the names of different sorts of cheese are often taken from different cities in the Netherlands ? Gouda  Edam  Leerdammer  Leyden  Maaslander  Maasdam and of course a gourmet Old Amsterdam.</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Prinsengracht 112</t>
         </is>
-      </c>
-      <c r="H40" t="n">
-        <v>52.376381</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.884267</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2755,41 +2755,41 @@
           <t>40783aa5-d739-40e6-9608-5c090d3b50f9</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>52.37659</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.913169</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Mediamatic</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Al sinds 1983 ontwikkelt het Amsterdamse instituut Mediamatic baanbrekende en intrigerende installaties die de kaders van kunst  cultuur en media verkennen op verschillende plekken in heel Amsterdam. In de vorm van evenementen  exposities en educatieve workshops  bijvoorbeeld. Maar ook in het (bijna) veganistische restaurant Mediamatic ETEN  waar je je smaakpapillen op een verrukkelijke manier kunt laten prikkelen.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Mediamatic</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Bold  groundbreaking  and always intriguing  this Amsterdam institution has been creating installations that celebrate technology  media  and organic cuisine since 1983. Mediamatic?s freewheeling affairs take place in various locations around the city.</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Dijksgracht 6</t>
         </is>
-      </c>
-      <c r="H41" t="n">
-        <v>52.37659</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.913169</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2813,41 +2813,41 @@
           <t>79c2a4bf-577b-4d41-a11b-f365f7fbdd28</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>52.362946</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.917803</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Rijksakademie van Beeldende Kunsten</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>De Rijksakademie van Beeldende Kunsten in Amsterdam is een instituut voor uitzonderlijk getalenteerde kunstenaars van over de hele wereld. Zo?n 50 kunstenaars concentreren zich twee jaar op onderzoek  experiment en het maken van nieuw werk.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Rijksakademie van beeldende kunsten (national academy of fine arts)</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>The Rijksakademie van beeldende kunsten (national academy of fine arts) in Amsterdam is an institute for exceptionally talented artists from all over the world. The Rijksakademie provides 50 artists with the opportunity to research  experiment and produce new works over a two-year period.</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Sarphatistraat 470</t>
         </is>
-      </c>
-      <c r="H42" t="n">
-        <v>52.362946</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.917803</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2871,41 +2871,41 @@
           <t>20edfdc2-a763-4275-ba57-9f154e046812</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>52.358649</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.88076</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>Vincent op Vrijdag</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent op Vrijdag biedt elke laatste vrijdag van de maand  tussen 19.00 en 22.00 uur  een programma waarin het museum door crossmediale programmering de impact van Van Gogh (en/op zijn tijd en generaties daarna) op hedendaagse kunst en cultuur laat zien voor jonge Amsterdammers van 18-30 jaar.   </t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Vincent on Friday</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>On the last Friday of every month  Amsterdam?s Van Gogh Museum turns into a great night spot thanks to cross-cultural programme and a relaxed vibe.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Paulus Potterstraat 7</t>
         </is>
-      </c>
-      <c r="H43" t="n">
-        <v>52.358649</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.88076</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2929,41 +2929,41 @@
           <t>2953d68c-26f0-4d48-89aa-3654c48dc7ac</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>52.336925</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.872262</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Amsterdam EXPO</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Sinds januari 2012 was Amsterdam EXPO de thuisbasis in Nederland voor reizende exposities van wereldklasse. De tentoonstellingsruimte van bijna 3.000 m2 kenmerkte zich door de onderscheidende line-up van titels die in het buitenland hun succes hebben bewezen. Zo waren hier de tentoonstellingen BODY WORLDS &amp; The Story of the Heart  Toetanchamon  zijn graf en zijn schatten  Pixar: 25 Years of Animation  de LEGO?-tentoonstelling The Art of the Brick en Giants of the Ice Age te zien.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Amsterdam EXPO</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Located in the south of the city  Amsterdam EXPO was a modern 3 000m2 exhibition space that regularly hosted major international exhibitions  including Tutankhamun ? His Tomb and His Treasures  Pixar: 25 Years of Animation and Giants of the Ice Age.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Gustav Mahlerlaan  24</t>
         </is>
-      </c>
-      <c r="H44" t="n">
-        <v>52.336925</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.872262</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2987,41 +2987,41 @@
           <t>a18045a1-2dca-4119-b3fd-c1ec95ee9147</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>52.366807</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.912274</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ARTIS-Micropia</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Ontdek het onzichtbare leven van microben in ARTIS-Micropia. In dit innovatieve museum maak je kennis met de wereld van micro-organismen zoals bacteri?n en schimmels  die overal in en om ons heen voorkomen.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>ARTIS-Micropia</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t xml:space="preserve">Making the invisible visible: Amsterdam?s Micropia is an innovative museum dedicated to the imperceptible world of microorganisms. </t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>Plantage Kerklaan 36-38</t>
         </is>
-      </c>
-      <c r="H45" t="n">
-        <v>52.366807</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.912274</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3045,37 +3045,37 @@
           <t>67f31032-f51a-4e78-8378-e01e248f9d5d</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>52.367349</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.903915</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>JHM Kindermuseum</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>JHM Kindermuseum</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>JHM Kindermuseum</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>Nieuwe Amstelstraat 1</t>
         </is>
-      </c>
-      <c r="H46" t="n">
-        <v>52.367349</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.903915</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -3087,41 +3087,41 @@
           <t>c259fab9-26dc-4bd7-952f-0f159ba2aa02</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>52.388189</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.926015</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>Museum Amsterdam Noord</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">Museum Amsterdam Noord is gevestigd in het voormalig Gemeentelijk Badhuis van Vogeldorp en geeft bezoekers een goed beeld van de duizendjarige geschiedenis van wat nu bekendstaat als Amsterdam Noord. De wisselende exposities tonen zowel recente vernieuwingen als ontwikkelingen in het verleden en diverse aspecten van de geschiedenis  bewoners en cultuur. </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Museum Amsterdam Noord</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t xml:space="preserve">Housed in a former municipal bathhouse in the neighbourhood known as Vogeldorp  this museum informs visitors about the 1 000 years of history of the terrain now commonly known as Amsterdam Noord. Its temporary exhibitions reflect upon both recent and past innovations and facets of the area's history  people and culture. </t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Zamenhofstraat 28A</t>
         </is>
-      </c>
-      <c r="H47" t="n">
-        <v>52.388189</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.926015</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3145,41 +3145,41 @@
           <t>77f6b43a-8e08-44b5-9462-10f8cc12f4e4</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>52.365312</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.902542</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Hollanders van de Gouden Eeuw</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">Dertig reusachtige groepsportretten uit de 17e eeuw afkomstig uit de collecties van het Amsterdam Museum en het Rijksmuseum zijn voor het eerst verzameld in de Hermitage Amsterdam. Deze ?broers en zussen? van De Nachtwacht zijn uniek in de wereld en vanwege hun formaat zelden te zien. </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Portrait Gallery of the Golden Age</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t xml:space="preserve">At the Hermitage Amsterdam  this exhibition sees the Hermitage collaborate with the Amsterdam Museum and the Rijksmuseum to display an impressive selection of more than 30 huge 17th-century group portraits  many of which haven?t been on public display for decades. </t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>Amstel 51</t>
         </is>
-      </c>
-      <c r="H48" t="n">
-        <v>52.365312</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.902542</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3203,41 +3203,41 @@
           <t>926fa07b-8be5-498e-8c42-677b8e22c67b</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>52.373679</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.898936</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Red Light Secrets</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Duik in de intrigerende wereld die voor velen verborgen blijft en ontdek de geheimen van Amsterdams meest beruchte buurt: het Red Light District.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Red Light Secrets</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Experience an intriguing world that remains hidden to many as you uncover the truth behind Amsterdam?s most notorious neighbourhood: the Red Light District.</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Oudezijds Achterburgwal 60H</t>
         </is>
-      </c>
-      <c r="H49" t="n">
-        <v>52.373679</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.898936</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3261,41 +3261,41 @@
           <t>73f3bd47-50b1-49d2-979c-733f11aedb96</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>52.370415</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.891297</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Schuttersgalerij</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">In de Schuttersgalerij  pal naast de populaire Kalverstraat in Amsterdam  vind je een bijzonder stukje Amsterdamse geschiedenis. Loop via het kleine poortje en het pleintje de openbare (en gratis toegankelijke) Schuttersgalerij in en bewonder de grote 17e-eeuwse schuttersstukken. </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Civic Guards Gallery</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t xml:space="preserve">An oasis of art: marvel at enormous 17th-century paintings just off   one of Amsterdam?s busiest shopping streets. </t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Kalverstraat  92</t>
         </is>
-      </c>
-      <c r="H50" t="n">
-        <v>52.370415</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.891297</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3319,37 +3319,37 @@
           <t>42f20cd4-9932-45ba-ab6b-0a6bda539f22</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>52.367755</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.912931</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Verzetsmuseum Junior</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Het Verzetsmuseum Junior in Amsterdam is het eerste kindermuseum over de geschiedenis van de Tweede Wereldoorlog in Nederland.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Verzetsmuseum Junior</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Plantage Kerklaan 61</t>
         </is>
-      </c>
-      <c r="H51" t="n">
-        <v>52.367755</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4.912931</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3373,41 +3373,41 @@
           <t>22400825-5f93-4511-a689-7c76d3bfdca5</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>52.365312</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.902542</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Outsider Art Museum</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">Outsider Art  kunst gemaakt door mensen met een beperking  zit in de lift. Nadat de Bi?nnale van Veneti? in 2013 voor een groot deel aan deze kunststroming gewijd was  kon internationale erkenning niet lang meer uitblijven. Het eerste Outside Art Museum  dat ondergebracht is in de Hermitage  exposeert honderden werken van Engelse  Franse  Iraanse  Japanse en Nederlandse kunstenaars. </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Outsider Art Museum</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>As of March 2016  the Hermitage Amsterdam welcomes the first Outsider Art Museum to the Netherlands. Experience a substantial collection of outsider art ? referring to art made by people who did not study at art academies ? in collaboration with the Dolhuys in Haarlem and healthcare organisation Cordaan.</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Amstel 51</t>
         </is>
-      </c>
-      <c r="H52" t="n">
-        <v>52.365312</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4.902542</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3431,41 +3431,41 @@
           <t>32df7c8b-1ac3-4cd0-b584-9ba60821b3a9</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>52.364665</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.882542</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>Green Box</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">Dit mysterieuze museum zit ondanks de locatie in de Korte Leidsedwarsstraat goed verborgen! Met moderne kunst uit Saoedi-Arabi?. </t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Green Box</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t xml:space="preserve">The Greenbox Museum of Contemporary Art is a private research institution and collection that was opened in 2008 to the public of Amsterdam. It was founded in order to support the work of visual artists living in the Kingdom of Saudi Arabia. It provides an alternative perspective of creativity  all from a part of the world that has seen several civilizations thrive for centuries. </t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Korte Leidsedwarsstraat 12</t>
         </is>
-      </c>
-      <c r="H53" t="n">
-        <v>52.364665</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4.882542</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3489,41 +3489,41 @@
           <t>3fa26659-86ef-4549-9466-60e0dd253818</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52.370161</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.888642</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>The Tea Rat</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">The Tea Rat is een van de allerkleinste musea van Amsterdam: het museum telt ??n kamer waarin je kennismaakt met de geschiedenis van de theepot. </t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>The Tea Rat</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Learn all about the history of the teapot in one of Amsterdam?s smallest museums.</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Raamsteeg 5</t>
         </is>
-      </c>
-      <c r="H54" t="n">
-        <v>52.370161</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4.888642</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3547,37 +3547,37 @@
           <t>5826ae76-9a68-47cf-b449-335f266fb893</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>52.384952</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.746678</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SugarCity Events</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>SugarCity Events  heeft zich in de afgelopen jaren ontwikkeld van voormalig suikerfabriek tot d? evenementenlocatie. Het industri?le decor  dat behouden is gebleven sinds zijn oorsprong  maakt SugarCity Events tot een unieke locatie. De rauwe en ongepolijste sfeer geeft de locatie zijn karakter en zorgt voor een verrassende indruk. Met de kenmerkende hoogte en imposante atriums biedt SugarCity Events mogelijkheden van 2 tot 4.500 gasten.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>SugarCity Events</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>Kristalpromenade 7</t>
         </is>
-      </c>
-      <c r="H55" t="n">
-        <v>52.384952</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4.746678</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3601,37 +3601,37 @@
           <t>198bf092-b6c1-4748-aa15-bcb93a8c83bc</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>52.356522</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.882108</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Po?zie Museum</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">Het Virtuele Museum is 24 uur per dag gratis te bezoeken via een app: Door het scherm van je smartphone verschijnen de paviljoens van het virtuele museum op het Museumplein. Gerenommeerd schrijver Anna Enquist werd aangesteld als curator van het museum en kreeg carte blanche: ze selecteerde tien Nederlandse dichters  met ieder zes gedichten. Het Museum is een innovatieve cross-over tussen literatuur  vormgeving  typografie  architectuur en Augmented Reality  in het museale hart van Amsterdam. </t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Po?zie Museum</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Museumplein 100</t>
         </is>
-      </c>
-      <c r="H56" t="n">
-        <v>52.356522</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4.882108</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3655,41 +3655,41 @@
           <t>3329e497-a157-440c-840f-69307ae362a7</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>52.374238</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.912014</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NEMO Science Museum</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">Direct naast het Centraal Station staat ??n van de modernste architectonische hoogstandjes van Amsterdam. NEMO Science Museum  het grote  groene gebouw biedt onderdak aan het grootste science center van Nederland. Het gebouw is ontworpen door de beroemde Italiaanse architect Renzo Piano. Vanaf het dakplein is een schitterend uitzicht over Amsterdam te bewonderen. </t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>NEMO Science Museum</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Take a voyage of discovery at NEMO Science Museum in Amsterdam  where children can playfully experience science and technology all day long. The museum is situated in an unmistakable  sloping green building  set amidst the city?s Eastern Docklands.</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Oosterdok 2</t>
         </is>
-      </c>
-      <c r="H57" t="n">
-        <v>52.374238</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4.912014</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3713,41 +3713,41 @@
           <t>ef3cd85e-1911-4218-9382-bc11f534b575</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>52.362777</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.922654</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>Tropenmuseum Junior</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t xml:space="preserve">In Tropenmuseum Junior in Amsterdam staat een vliegtuig voor je klaar. Stap in  maak je riemen vast  en dan....op naar Marokko! </t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Tropenmuseum Junior</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t xml:space="preserve">Located in a majestic building on the edge of the Oosterpark  Tropenmuseum Junior was created especially for children from ages 6 to 13. It is part of the Tropenmuseum  a renowned institution focused on non-Western cultures. The interactive exhibits introduce children to new cultures in a playful way that sparks their curiosity. </t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Linnaeusstraat 2</t>
         </is>
-      </c>
-      <c r="H58" t="n">
-        <v>52.362777</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4.922654</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3771,41 +3771,41 @@
           <t>29cbeea4-4617-4c27-b895-220cc68496c1</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>52.369982</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.882359</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>Het Woonbootmuseum</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>In het Woonbootmuseum ervaar je zelf hoe het is om in een woonboot te wonen op een Amsterdamse gracht.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Het Woonbootmuseum</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>The Houseboat Museum gives you the unique opportunity to experience what life is like on board a houseboat in an Amsterdam canal. The Houseboat Museum is located in the ?Hendrika Maria?  a former freighter moored on the Prinsengracht. Until the 1960s  boat was primarily used for hauling sand and gravel. Even after it was turned into a houseboat  the owners kept much of its original exterior.</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>Prinsengracht 296K</t>
         </is>
-      </c>
-      <c r="H59" t="n">
-        <v>52.369982</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4.882359</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3829,41 +3829,41 @@
           <t>a0102890-1e5e-4726-b26c-05b914368ae5</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>52.367887</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.886289</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Het Grachtenhuis</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>De prachtige grachten maken de stad Amsterdam. Hier wordt al eeuwen geld verdiend  kunst gemaakt  feest gevierd  het leven geleefd. In Het Grachtenhuis vertellen ze dit bijzondere verhaal op een avontuurlijke wijze.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Het Grachtenhuis (Museum of the Canals)</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>A visit to the Museum of the Canals (Het Grachtenhuis) is the perfect way to learn more about the history of Amsterdam?s Canal Ring. The museum looks at the 17th-century city expansion projects that led to Amsterdam?s ring of canals which received UNESCO world heritage status in 2010. After seeing the interactive displays  you?ll look at Amsterdam in a whole new light when wandering through the city?s streets or taking a canal cruise.</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Herengracht 386</t>
         </is>
-      </c>
-      <c r="H60" t="n">
-        <v>52.367887</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4.886289</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3887,41 +3887,41 @@
           <t>4a57161c-9ebc-4175-98f4-37f79d7c1763</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>52.365312</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.902542</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>Hermitage Amsterdam</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">De Hermitage Amsterdam toont de collectie van een van de beroemdste en grootste musea ter wereld: Staatsmuseum de Hermitage in St.-Petersburg. Het museum van de tsaren  met vandaag de dag een collectie van meer dan drie miljoen uitzonderlijke kunstwerken. Met ieder half jaar een nieuwe spraakmakende tentoonstelling. </t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Hermitage Amsterdam</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>The Hermitage Amsterdam is the Dutch branch of the world-famous Hermitage museum in Saint Petersburg  Russia. Located on the banks of the Amstel River  the Hermitage Amsterdam is an exhibition space and cultural education centre with a focus on Russian history and culture.</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Amstel 51</t>
         </is>
-      </c>
-      <c r="H61" t="n">
-        <v>52.365312</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4.902542</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3945,41 +3945,41 @@
           <t>a0f6362d-f987-4af2-a060-f7ee2cb9790b</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>52.365181</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.896862</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>Tassenmuseum Hendrikje</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">Reis door de tijd  geschiedenis en mode aan de hand van de indrukwekkende tassencollectie van Tassenmuseum Hendrikje. Het museum toont de geschiedenis van de westerse tas vanaf de late Middeleeuwen tot nu. Het is het enige museum in de wereld met zo'n uitgebreide en gespecialiseerde collectie tassen.   </t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Museum of Bags and Purses</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Travel through time  history and fashion as you explore the impressive collection of handbags and accessories at the Museum of Bags and Purses. As the world?s only museum with such an extensive and specialised collection  it tells the story of the humble handbag from the late Middle Ages to the present day.</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Herengracht 573</t>
         </is>
-      </c>
-      <c r="H62" t="n">
-        <v>52.365181</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4.896862</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4003,41 +4003,41 @@
           <t>9f600ad1-4bfb-4c41-ab06-37b8d5de526e</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>52.380042</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.827096</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>Van Eesteren Museum</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Het Van Eesteren Museum is een uniek museum over de stedenbouwkundige Cornelis van Eesteren en zijn wereldberoemde Westelijke Tuinsteden.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Van Eesteren Museum</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t xml:space="preserve">The Van Eesteren Museum is dedicated to Amsterdam?s Westelijke Tuinsteden ('Western Garden Towns?)  which arose after WWII  and their architect Cornelis van Eesteren. </t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Burg de Vlugtlaan 125</t>
         </is>
-      </c>
-      <c r="H63" t="n">
-        <v>52.380042</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4.827096</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4061,41 +4061,41 @@
           <t>6c66bbe4-f649-4465-b98d-5af9ca01a7be</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>52.367879</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.919781</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>Museum 't Kromhout</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">Museum 't Kromhout heeft een educatief programma dat de ontwikkeling van de Oostelijke eilanden en van de scheepsbouw volgt. </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Museum 't Kromhout (?t Kromhout Shipyard)</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Museum 't Kromhout (The Kromhout Shipyard) is located on the Hoogte Kadijk in Amsterdam. It?s one of the few shipyards of cultural and historical importance that is still operating ? a unique combination of industrial monument  operating shipyard and museum.</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Hoogte Kadijk 147</t>
         </is>
-      </c>
-      <c r="H64" t="n">
-        <v>52.367879</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4.919781</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4119,41 +4119,41 @@
           <t>9e8badd0-1c2f-42e9-9ada-09b36e41c9dd</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>52.367374</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.887813</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>Klederdracht Museum Amsterdam</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>In een 17e eeuws rijksmonument aan de Herengracht in Amsterdam presenteert het Klederdrachtmuseum een volledig overzicht van de Nederlandse streekdrachten. Het museum neemt je mee in de geschiedenis van de klederdracht uit onder meer Volendam  Marken  Hindeloopen  Staphorst  Spakenburg en Zeeland. In de fotostudio kan iedereen zich in klederdracht laten fotograferen. De studio heeft een eigen opgang en is apart te bezoeken.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Folk Costume Museum Amsterdam</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t xml:space="preserve">Discover the history and traditions of Dutch folk costume at this dedicated museum located in a beautiful 17th century building on the Herengracht canal.  </t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>Herengracht 427</t>
         </is>
-      </c>
-      <c r="H65" t="n">
-        <v>52.367374</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4.887813</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4177,41 +4177,41 @@
           <t>3bcdfd73-44dd-43b0-be22-b2a308093006</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>52.367638</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.884824</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>Huis Marseille -  Museum voor Fotografie</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve">Huis Marseille is het eerste fotografiemuseum van Amsterdam.  Het museum biedt al meer dan een zeventien jaar een rijk en gevarieerd tentoonstellingsprogramma dat gemiddeld vier keer per jaar gewisseld wordt. Het museum werd in 2013 uitgebreid met buurpand Keizersgracht 399  zodat het inmiddels beschikt over zo?n veertien tentoonstellingstellingsruimtes  waardoor er naast de wisselende tentoonstellingen ook veel gelegenheid is voor het tonen van de eigen collectie  die voornamelijk bestaat uit toonaangevende  moderne (nationale en internationale) fotografie. </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Huis Marseille -  Museum for Photography</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Since 1999  this photography museum has occupied a gorgeous  17th-century canal house located in the centre of Amsterdam. The museum expanded in 2013  incorporating the adjacent house to double its exhibition space. Huis Marseille takes its name from a stone tablet attached to the exterior of the first building  depicting the French port of Marseille. The building itself is certainly worth a visit  even if it?s just for the architecture!</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>Keizersgracht 401</t>
         </is>
-      </c>
-      <c r="H66" t="n">
-        <v>52.367638</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.884824</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4235,41 +4235,41 @@
           <t>a900b5d7-cbe6-4013-a7da-fb32f8f4e92e</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>52.358709</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.881901</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>Moco Museum</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Het Moco Museum (Modern Contemporary) heeft als doel om een brede en jonge doelgroep in Amsterdam kennis te laten maken met werken van internationale grootheden in de kunstwereld  zoals Banksy  Warhol en Basquiat. Het Amsterdamse museum richt zich vooral op moderne en hedendaagse kunst.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Moco Museum</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>The Moco Museum (Modern Contemporary) aims to reach out to a wide  international audience in Amsterdam by featuring works created by the ?rock stars? of the art world  such as Banksy  Warhol and Basquiat. It is a private initiative  and the pieces on exhibition are made available thanks to individual loans.</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>Honthorststraat 20</t>
         </is>
-      </c>
-      <c r="H67" t="n">
-        <v>52.358709</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4.881901</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4293,41 +4293,41 @@
           <t>a01d8d50-e20c-4b56-a7d4-e88248b3640a</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>52.3573751</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.8381231</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>De Appel</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve">De Appel is een inspirerend internationaal instituut voor hedendaagse kunst en vervult een sleutelpositie voor de kunsten in zowel Amsterdam als heel Nederland. Het kunstinstituut is ook internationaal gezien een blikvanger  aangezien het een belangrijk aandeel heeft in het bepalen van relevante trends in de hedendaagse kunst in al zijn vormen. </t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>De Appel</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t xml:space="preserve">De Appel arts centre is an inspirational international institution for contemporary art  fulfilling a key role in both Amsterdam and the Netherlands. This art institution is also an eye-catcher at an international level  serving as a standard for determining relevant trends in contemporary art in all its forms. </t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>Schipluidenlaan 12D4</t>
         </is>
-      </c>
-      <c r="H68" t="n">
-        <v>52.3573751</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4.8381231</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4351,41 +4351,41 @@
           <t>1272b667-b6f7-4470-8a63-0627fd6f174c</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>52.368534</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.886355</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>Cromhouthuis</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>In ??n van Amsterdams mooiste grachtenhuizen kun je kennismaken met de familie Cromhout. Bijna twee eeuwen lang bewoonden zij vier majestueuze panden aan de chique Herengracht. Hun huizen zijn vandaag de dag nog net zo imposant en fraai als destijds in de Gouden Eeuw.</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Cromhouthuis</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t xml:space="preserve">This historic canal-side mansion was the home of a powerful Amsterdam merchant family in the Golden Age. Today  the splendid rooms are open to the public. </t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>Herengracht 366-368</t>
         </is>
-      </c>
-      <c r="H69" t="n">
-        <v>52.368534</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4.886355</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4409,41 +4409,41 @@
           <t>2cefd885-58aa-410b-87a4-d7e1f1df08c2</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>52.367755</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.912931</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>Verzetsmuseum Amsterdam</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Het monumentale gebouw Plancius is het fraaie onderkomen van het Verzetsmuseum Amsterdam. De bezoeker proeft de sfeer van de oorlogsjaren tijdens zijn wandeling door het Nederland van voor  tijdens en net na de oorlog.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Dutch Resistance Museum</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t xml:space="preserve">The Dutch Resistance Museum  known to locals as the Verzetsmuseum  details the history of the Dutch resistance in World War II during the country?s occupation by Germany from May 1940 to May 1945. </t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Plantage Kerklaan 61</t>
         </is>
-      </c>
-      <c r="H70" t="n">
-        <v>52.367755</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.912931</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -4467,41 +4467,41 @@
           <t>70d130e3-9b9c-472b-88a7-addcde21f22b</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>52.369198</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4.939839</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>Nederlands Persmuseum</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>In het Nederlands Persmuseum vind je een collectie kranten- en tijdschriften vanaf 1610  politieke tekeningen  reclamedrukwerk  foto's en archieven die betrekking hebben op de Nederlandse gedrukte pers.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Nederlands Persmuseum (Dutch Press Museum)</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>The Nederlands Persmuseum (Dutch Press Museum) museum covers the 400-year-long history of journalism and press in Amsterdam and the Netherlands. The press museum collection includes newspapers and magazines from as far back as 1610  political drawings  printed advertising material  photographs and archives related to the Dutch printing press.</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>Zeeburgerkade 10</t>
         </is>
-      </c>
-      <c r="H71" t="n">
-        <v>52.369198</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.939839</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -4525,41 +4525,41 @@
           <t>9579b782-bb71-4027-b1e7-5d15e6035c77</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>52.373127</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.89008</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>De Nieuwe Kerk Amsterdam</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>De Nieuwe Kerk is wereldberoemd vanwege haar prachtige architectuur  de wisselende tentoonstellingen en haar bijzondere band met het Nederlandse koningshuis. De bijzondere kerk  van meer dan zes eeuwen oud  ligt in het hart van de stad. Gedurende het hele jaar zijn er grote internationale tentoonstellingen te zien.</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>De Nieuwe Kerk</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Located across from the Amsterdam Royal Palace on Dam Square  this 15th-century church has hosted countless events over the years. In addition to being used for the wedding and investiture of Willem-Alexander  the current King of the Netherlands  it serves as an exhibition space.</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>Dam</t>
         </is>
-      </c>
-      <c r="H72" t="n">
-        <v>52.373127</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.89008</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -4583,41 +4583,41 @@
           <t>9097ed76-6af3-489c-a745-03343c3102b9</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>52.363658</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.886047</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>Amsterdam Pipe Museum</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>In de sfeervolle ambiance van een historisch Amsterdams grachtenhuis  toont het Amsterdam Pipe Museum een overzicht van mode en design in rookpijpen. De expositie omvat een periode van 2500 jaar  met spannende objecten uit vijf continenten.</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Amsterdam Pipe Museum</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t xml:space="preserve">In the historic ambiance of a 17th-century canal house  the Amsterdam Pipe Museum presents an overview of smoking pipes throughout the ages. The exhibition covers a period of 2 500 years and includes exciting objects from five continents. It represents the life?s work of a serious collector who spent forty years amassing the world's most renowned pipe collection. Take a private tour of the ground floor of the collector?s  house for an unexpected experience! </t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>Prinsengracht 488</t>
         </is>
-      </c>
-      <c r="H73" t="n">
-        <v>52.363658</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4.886047</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -4641,41 +4641,41 @@
           <t>7f736099-819c-4c08-9470-fd2de4112f55</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>52.346238</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.938456</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>Nederlands Uitvaart Museum Tot Zover</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoe wij omgaan met de dood zegt veel over wie we zijn  onze afkomst en de tijd waarin we leven.  </t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Netherlands Funeral Museum Tot Zover</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>The Netherlands Funeral Museum focuses on funeral culture in the Netherlands over the centuries. The Funeral Museum looks at honoring the deceased and processions throughout history and in today?s current multicultural climate. The collection touches upon all aspects of burial  cremation and bereavement throughout the ages.</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>Kruislaan 124</t>
         </is>
-      </c>
-      <c r="H74" t="n">
-        <v>52.346238</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4.938456</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -4699,41 +4699,41 @@
           <t>dc512fe8-284d-41b5-a682-e68364b40ed2</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>52.363402</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.893366</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>Museum Van Loon</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t xml:space="preserve">Museum Van Loon ligt in het hart van de Amsterdamse grachtengordel en is het woonhuis van de Amsterdamse regentenfamilie Van Loon. Willem van Loon was in 1602 medeoprichter van het V.O.C. </t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Museum Van Loon</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Museum Van Loon  the former house of the regent Van Loon family  is situated in the heart of the Amsterdam Canals. Willem van Loon was in 1602 co-founder of the Dutch East Indian Company. The house was designed in 1672 by architect Adriaen Dortsman. The first inhabitant of the house was Ferdinand Bol  a student of the famous painter Rembrandt. In the rooms one finds beautiful portraits  impressive pieces of furniture and silver and porcelain from different centuries.</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>Keizersgracht 672</t>
         </is>
-      </c>
-      <c r="H75" t="n">
-        <v>52.363402</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4.893366</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -4757,41 +4757,41 @@
           <t>b91a4bc1-03ae-4b66-955e-0d26a2835d77</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>52.366902</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.91093</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>Nationaal Holocaust Museum</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t xml:space="preserve">Het Nationaal Holocaust Museum i.o. biedt een gevarieerd aanbod aan tentoonstellingen en evenementen waarin men kennis neemt van de veelheid aan verhalen over de Holocaust  verteld in kunstzinnige vorm  met authentieke objecten en gebaseerd op persoonlijke verhalen. </t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>National Holocaust Museum</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t xml:space="preserve">The National Holocaust Museum presents a range of exhibitions and events that introduce visitors to the multitude of stories about the Holocaust. These stories are told in an artistic form  illustrated by authentic objects and based on personal accounts. The museum is still in development and will pass through several stages over the coming years. The overarching goal is a permanent National Holocaust Museum that details the history of the Holocaust in the Netherlands in a broad international context. </t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>Plantage Middenlaan 27</t>
         </is>
-      </c>
-      <c r="H76" t="n">
-        <v>52.366902</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.91093</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4815,41 +4815,41 @@
           <t>cbf77bab-b6c9-4443-b62b-4ec7c01a7f52</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>52.356429</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.879801</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>Van Gogh Museum</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Het Van Gogh Museum in Amsterdam beheert de grootste verzameling werken van Vincent van Gogh ter wereld. De vaste collectie omvat 200 schilderijen  500 tekeningen  meer dan 700 brieven en Van Goghs verzameling Japanse prenten. Het Van Gogh opende in 1973 op het Museumplein en is een van de populairste musea ter wereld.</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Van Gogh Museum</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>The Van Gogh Museum in Amsterdam is one of the most popular museums in the world  attracting visitors from every corner of the globe. Naturally  this is in large part due to it housing the largest collection of works by Vincent van Gogh ? more than 200 paintings  500 drawings and 700 of his letters. Having originally opened on Museumplein in 1973  the Van Gogh Museum has been expanded and modernised over the years  ensuring it's a truly cutting-edge exhibition and visitor space.</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>Museumplein 6</t>
         </is>
-      </c>
-      <c r="H77" t="n">
-        <v>52.356429</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4.879801</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4873,41 +4873,41 @@
           <t>dd19da01-45a7-470a-b0df-a2feef783f77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>52.375132</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.884142</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>Anne Frank Huis</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Ruim twee jaar zat Anne Frank met haar familie ondergedoken in het achterhuis van het pand aan de Prinsengracht 263  waar Anne?s vader  Otto Frank  zijn bedrijf had. Ook de familie Van Pels en Fritz Pfeffer hadden hier hun schuilplek.</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Anne Frank House</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Anne Frank is one of Amsterdam?s most well known former residents. The Anne Frank House at Prinsengracht 263 in Amsterdam is where she lived in hiding with her family for more than two years during World War II. Now converted into a museum it contains a sobering exhibition about the persecution of the Jews during the war  as well as discrimination in general.</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>Prinsengracht 267</t>
         </is>
-      </c>
-      <c r="H78" t="n">
-        <v>52.375132</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4.884142</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4931,41 +4931,41 @@
           <t>2ba2fa84-b735-4f8c-91c5-a2c7ded1b57d</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>52.384399</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.900978</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>EYE Filmmuseum</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t xml:space="preserve">EYE Filmmuseum in Amsterdam is iedere dag geopend voor iedereen die van film houdt. Vier filmzalen  een grote ruimte voor wisselende tentoonstellingen  de EYE shop  een bar-restaurant en de permanente presentatie in het Panorama heten de bezoeker van ?s morgen vroeg tot ?s avonds laat welkom. Het gebouw met filmisch uitzicht op het IJ werd in 2012 ontworpen door het Oostenrijkse architectenbureau Delugan Meissl. </t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>EYE Filmmuseum</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Although only opened in spring 2012  the building of the EYE is already one of Amsterdam?s modern icons. Situated on the northern bank of the River IJ  just opposite Central Station  this cinema  film museum  caf?/restaurant and cutting-edge event location is a standout location.</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>IJpromenade 1</t>
         </is>
-      </c>
-      <c r="H79" t="n">
-        <v>52.384399</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4.900978</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4989,41 +4989,41 @@
           <t>0505f9b2-6ead-46c8-bb9b-178ffe219c79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>52.362777</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.922654</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>Tropenmuseum</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Het Tropenmuseum is een museum over mensen  dat gevestigd is in een van de mooiste museumgebouwen van Amsterdam. Het museum biedt vaste en tijdelijke tentoonstellingen waarbij de objecten stuk voor stuk een menselijk verhaal laten zien. Ze maken je nieuwsgierig naar de enorme culturele diversiteit in de wereld.</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Tropenmuseum</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Amsterdam's Tropenmuseum (Tropenmuseum of World Cultures) is a museum about people  housed in an impressive listed building overlooking Amsterdam?s Oosterpark. The extensive permanent display and regularly changing exhibitions feature objects that all have a story to tell about humankind. Through these stories about universal human themes  such as mourning  celebration  ornamentation  prayer and conflict  visitors can glimpse the past  present and future of non-Western cultures around the globe.</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>Linnaeusstraat 2</t>
         </is>
-      </c>
-      <c r="H80" t="n">
-        <v>52.362777</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.922654</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -5047,41 +5047,41 @@
           <t>71aa0732-99a1-4c27-abaa-62d81a43a8b1</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>52.37077</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.916425</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>Het Scheepvaartmuseum Amsterdam</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>In 1656 liet de marineleiding in Amsterdam een groot magazijn bouwen. Dit was een opslagplaats voor zeilen  touwen  wapens en munitie. Hiermee kon de marine snel een oorlogsvloot uitrusten. Dit Zeemagazijn is sinds 1973 het onderkomen voor Het Scheepvaartmuseum Amsterdam.</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>The National Maritime Museum</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Built in 1656  the former national naval warehouse was once used by the Dutch navy to store sails  ropes  weapons and ammunition. Since 1973 it has been home to the National Maritime Museum  known as the Scheepvaartmuseum in Dutch.</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>Kattenburgerplein 1</t>
         </is>
-      </c>
-      <c r="H81" t="n">
-        <v>52.37077</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4.916425</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -5105,41 +5105,41 @@
           <t>d17e70df-1851-41dd-a27f-99bae778e577</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>52.360007</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.885185</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>Rijksmuseum</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Het Rijksmuseum is een van de grootste musea van Amsterdam en toonde in april 2013  na een ingrijpende tien jaar durende restauratie en renovatie  zijn nieuwe (en oude) gezicht. In 1876 gebouwd naar ontwerp van de bekende architect P.J.H. Cuypers  opende het monumentale gebouw in 1885 als grootste museum van Nederland.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Rijksmuseum</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>The Rijksmuseum is one of Amsterdam?s grandest and most popular museums. Its vast collection showcases iconic art and a wide variety of artefacts that reflect more than 800 years of Dutch and global history  including jaw dropping paintings by the likes of Rembrandt  Van Gogh and countless more Dutch greats.</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>Museumstraat 1</t>
         </is>
-      </c>
-      <c r="H82" t="n">
-        <v>52.360007</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4.885185</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -5163,41 +5163,41 @@
           <t>e3f3d6d7-eaf9-4d39-af37-b97ba8a21243</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>52.369358</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4.901191</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>Museum Het Rembrandthuis</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Hoe leefde Rembrandt? Waar schilderde en etste de beroemdste kunstenaar van Nederland zijn meesterwerken? Kom langs en ontmoet hem in zijn eigen huis!</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>Rembrandt House Museum</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>During the height of his career  renowned Dutch Golden Age artist Rembrandt Harmenszoon van Rijn lived in this house located just off Waterlooplein in the centre of Amsterdam. It is now a museum dedicated to both his life and his work.</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>Jodenbreestraat  4</t>
         </is>
-      </c>
-      <c r="H83" t="n">
-        <v>52.369358</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4.901191</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -5221,37 +5221,37 @@
           <t>d52080e9-5df0-4fd0-aafd-bce2ffff386c</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>52.37865</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.88357</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>Geelvinck Pianola Museum</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Museum met automatisch spelende pianos</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Geelvinck Pianola Museum</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>Westerstraat 106</t>
         </is>
-      </c>
-      <c r="H84" t="n">
-        <v>52.37865</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4.88357</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5275,41 +5275,41 @@
           <t>67f6163d-a747-46a7-a39a-81528f5b8b04</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>52.378509</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.883645</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>Pianola Museum</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t xml:space="preserve">Het Pianola Museum is ??n van de kleinste musea van Amsterdam. In het museum staan tal van pianola's  reproductiepiano's en aanverwante zaken.  </t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Pianola Museum</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>The Pianola Museum is one of Amsterdam?s smallest museums  tucked away in the Jordaan district. Inside the museum  you will find numerous pianolas (player pianos)  reproduction pianos and related objects. The museum archive has a collections of over 30 000 perforated paper music rolls  most of which can be played on the different instruments housed in the museum. Visit the Pianola Museum to learn more about the history and technology of these magical instruments that nearly play themselves.</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>Westerstraat 106</t>
         </is>
-      </c>
-      <c r="H85" t="n">
-        <v>52.378509</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4.883645</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -5333,41 +5333,41 @@
           <t>5c7f06df-0d3c-4680-926e-91a6df629e94</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>52.359431</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.88248</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>Diamant Museum Amsterdam</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>In een speciaal voor dit doel gerenoveerde villa aan het Museumplein is het Diamant Museum Amsterdam gevestigd. Op de eerste en tweede verdieping bevinden zich de expositiezalen.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>Diamant Museum (Amsterdam Diamond Museum)</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>The Diamant Museum (Amsterdam Diamond Museum) takes you on a journey that began 3 billion years ago  200 kilometres under the surface of the earth. The journey ends with the beautiful cut diamonds and the Amsterdam Diamond Museum. Come visit and learn more about Amsterdam?s roles as an important diamond centre for more than four centuries.</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>Paulus Potterstraat 8</t>
         </is>
-      </c>
-      <c r="H86" t="n">
-        <v>52.359431</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4.88248</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -5391,41 +5391,41 @@
           <t>7d869de4-71fc-4ce6-9534-a5988cc90041</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>52.390401</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4.873812</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>Museum Het Schip - De Amsterdamse School</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Museum Het Schip is het architectuur- en designmuseum over De Amsterdamse School. Het Museum bevindt zich in drie fabelachtige woningbouwcomplexen ontworpen door de befaamde architect Michel de Klerk in Amsterdam West. Hier leer je alles over de sociale  politieke en artistieke context van deze expressionistische kunststroming. Je ziet een krotwoning van voor de woningwet  en een arbeiderswoning van daarna. Het expressionistische woningblok van rode baksteen is wereldberoemd en wordt in de volksmond Het Schip genoemd. Het behoort tot de top van de architectuurstroming De Amsterdamse School.</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Museum Het Schip</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t xml:space="preserve">Museum Het Schip explores the Amsterdam School style of architecture in its social  political and artistic context. The museum is located inside Het Schip (the ship) on the Spaarndammerplantsoen  one of the three monumental Amsterdam School apartment blocks there designed by Michel de Klerk. </t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>Oostzaanstraat 45</t>
         </is>
-      </c>
-      <c r="H87" t="n">
-        <v>52.390401</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4.873812</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -5449,41 +5449,41 @@
           <t>57002f54-c421-4677-91f2-b3a0a17b9f2e</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>52.362614</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.891803</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>Foam Editions</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t xml:space="preserve">Foam Editions is een galerieruimte van Foam_fotografiemuseum Amsterdam. In Foam Editions worden foto?s van hoge kwaliteit verkocht in een gelimiteerde  exclusieve oplage. </t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Foam Editions</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>Foam Editions is a gallery located inside Amsterdam?s Foam photography museum. Foam Editions sells high-quality photos in limited editions. The gallery features a selection of signed prints by talented young photographers at attractive prices. Internationally acclaimed photographers who have exhibited in Foam Amsterdam or have been published in Foam Magazine also make their work available especially for the gallery.</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>Vijzelstraat 78</t>
         </is>
-      </c>
-      <c r="H88" t="n">
-        <v>52.362614</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4.891803</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -5507,41 +5507,41 @@
           <t>b92dc3c4-c4ff-461a-b53d-da18e468b153</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>52.36935</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.894035</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>Galerie Mokum</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Galerie Mokum is in 1962 opgericht en voert al meer dan veertig jaar een consequent beleid door het promoten van Nederlandse figuratieve schilderkunst.</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Galerie Mokum</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t xml:space="preserve">Founded in 1962  Galerie Mokum has focused on promoting Dutch figurative and realistic art for over forty years. The gallery frequently offers new exhibitions featuring a variety of established artists and new talent. </t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>Oudezijds Voorburgwal 334</t>
         </is>
-      </c>
-      <c r="H89" t="n">
-        <v>52.36935</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4.894035</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -5565,41 +5565,41 @@
           <t>721ccae6-80e8-459f-9590-85a77751febc</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>52.373056</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.892222</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>Stichting WG-Kunst</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>WG-Kunst is een dynamische organisatie voor kunst en cultuureducatie en wordt door actieve kunstenaars vormgegeven. WG-Kunst is een Amsterdamse organisatie die middels tentoonstellingen en cultuureducatieve projecten stimuleert tot kunstzinnige ontwikkeling.</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Stichting WG Kunst (art foundation)</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>WG Kunst is a dynamic foundation for art and cultural education. It employs 20 artists who focus on two key areas of developments within the arts: creating exhibitions and leading art-based educational projects. The educational projects are carried out throughout the city for participants of all ages  from small children to the elderly. WG Kunst frequently organises exhibitions at their head office in Amsterdam.</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>M v Bouwdk Bastiaansestr 28</t>
         </is>
-      </c>
-      <c r="H90" t="n">
-        <v>52.373056</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4.892222</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -5623,41 +5623,41 @@
           <t>cda376b6-7147-4ecf-9af3-64fdaa6d468c</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>52.36521</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.890257</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>Lieve Hemel</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t xml:space="preserve">In deze galerie kun je terecht voor het beste uit het hedendaags Nederlands Realisme in de schilderkunst en daarnaast hedendaags zilver. </t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Galerie Lieve Hemel</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>The Lieve Hemel art gallery features the best in contemporary Dutch Realism painting  as well as modern sculptural pieces in silver.</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>Nieuwe Spiegelstraat 3</t>
         </is>
-      </c>
-      <c r="H91" t="n">
-        <v>52.36521</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4.890257</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -5681,41 +5681,41 @@
           <t>9fb695f6-a3d5-4d32-ab15-509fa8d49e30</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>52.371321</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.897631</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>Anadolu 3-D Holography</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Deze galerie heeft een groot assortiment hologrammen van diverse formaten en 'Limited Editions'.</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Anadolu 3D Holography</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>This shop and gallery has a variety of unique holograms on display  available in many sizes and styles.</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>Oude Hoogstraat 15</t>
         </is>
-      </c>
-      <c r="H92" t="n">
-        <v>52.371321</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4.897631</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
@@ -5735,41 +5735,41 @@
           <t>f5c9eca6-6ecb-4fee-8e8a-5a2b2d0a3d72</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>52.371246</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.877291</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>Annet Gelink Gallery</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Annet Gelink Gallery is een van de meest toonaangevende galeries voor hedendaagse kunst in Nederland. De galerie is gevestigd in het centrum van Amsterdam.</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Annet Gelink Gallery</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t xml:space="preserve">Annet Gelink Gallery is one of the leading contemporary art galleries in the Netherlands. Since 2000  the gallery has been exhibiting work of groundbreaking artists  ranging from drawing  painting and photography to installation and video art. </t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>Laurierstraat 187-189</t>
         </is>
-      </c>
-      <c r="H93" t="n">
-        <v>52.371246</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4.877291</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -5793,41 +5793,41 @@
           <t>22f1d636-3f20-49c4-93e3-44210721ab09</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>52.375627</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.884704</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>Galerie Paul Andriesse</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Sinds 1984 is Galerie Paul Andriese een begrip in Amsterdam. Hier vind je (inter)nationaal hedendaags werk van kunstenaars als Marlene Dumas  Ren? Daniels en Thomas Struth. In de galerie kon je voorheen ook terecht voor Europese fotokunst.</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Gallery Paul Andriesse</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>International contemporary art from the Netherlands and abroad  including artists such as Marlene Dumas  Ren? Daniels and Thomas Struth.</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>Leliegracht 47</t>
         </is>
-      </c>
-      <c r="H94" t="n">
-        <v>52.375627</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4.884704</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -5851,41 +5851,41 @@
           <t>67c46893-20a0-4647-9c6d-fda96dc5a6da</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>52.36015</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4.891983</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>Akinci</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Het complex aan de Lijnbaansgracht biedt onderdak aan maar liefst vijf galerijen waaronder Akinci. De liefhebber voor hedendaagse kunst zit hier zeker goed.</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Akinci</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Contemporary art housed in a complex with five other galleries. Akinci presents artists whose working practice spans a wide range of current media  reflecting the diversity of communication possibilities available within contemporary visual art.</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>Lijnbaansgracht 317</t>
         </is>
-      </c>
-      <c r="H95" t="n">
-        <v>52.36015</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4.891983</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -5909,41 +5909,41 @@
           <t>9d29203b-385e-464a-b6ff-aff865e70449</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>52.373448</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.878379</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>Fons Welters</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Fons Welters staat sinds 1988 bekend om zijn oog voor jong talent en het ondersteunen van nieuwe (inter)nationale kunstenaars.</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Fons Welters</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>Fons Welters is ultimately renowned for its sharp eye for young talent  supporting new artists from the Netherlands and beyond since 1988.</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>Bloemstraat 140</t>
         </is>
-      </c>
-      <c r="H96" t="n">
-        <v>52.373448</v>
-      </c>
-      <c r="I96" t="n">
-        <v>4.878379</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -5967,41 +5967,41 @@
           <t>1c3e48fd-4e7a-4dc7-bd4f-de5da51893f4</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>52.370466</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.903484</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>Van Zoetendaal Photography</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Van Zoetendaal is niet alleen bekend vanwege een breed aanbod van hedendaagse fotografie  de galerie is ook curator van verschillende exposities en is daarnaast uitgever van verschillende fotoboeken.</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Van Zoetendaal Photography</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Van Zoetendaal Photography is primarily active in international contemporary photography  curating exhibitions in museums  as a gallery  and also in publishing photo books.</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>Oudeschans 67F</t>
         </is>
-      </c>
-      <c r="H97" t="n">
-        <v>52.370466</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4.903484</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -6025,41 +6025,41 @@
           <t>51de3be4-abaf-4ebe-87b8-53a4ed364873</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>52.374686</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4.881248</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>Eduard Planting Galerie</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>De Eduard Planting Galerie zit in hartje Jordaan waar het werk van internationale fotografen aan de muur hangt.</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Eduard Planting Gallery</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>An attractive gallery in the Jordaan  specialising in showcasing fine art photographs by internationally renowned artists and upcoming talent.</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>Eerste Bloemdwarsstraat 2</t>
         </is>
-      </c>
-      <c r="H98" t="n">
-        <v>52.374686</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4.881248</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -6083,41 +6083,41 @@
           <t>97103d8e-6102-4967-af52-1324b107cc2e</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>52.377177</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.939348</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>Galerie Pien Rademakers</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>In deze galerie vind je zowel visuele kunst  design als mode. Deze zomer verhuisde Galerie Pien Rademakers naar het KNSM-eiland  waar het nieuwe pand twee verdiepingen telt.</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Gallery Pien Rademakers</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>New visual art  design and fashion. In summer 2012  the gallery moved into a beautiful location on the KNSM island  which has two well-lit floors dedicated to art  design and fashion in a concept gallery space.</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>KNSM-Laan 291</t>
         </is>
-      </c>
-      <c r="H99" t="n">
-        <v>52.377177</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4.939348</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -6141,41 +6141,41 @@
           <t>9069004c-9be7-4b60-b7ca-25a68c5550d5</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>52.377851</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4.883504</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>KochxBos</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>In de kleine galerie van Esther Koch en Hans Bos vind je een paar van de beste avantgardistische en surrealistische kunstwerken.</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>KochxBos</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>Owned by Esther Koch and Hans Bos  KochxBos is a small gallery with a big heart  devoting its time to sourcing and showcasing some of the best avant-garde and surreal artworks ? or as they proudly state: &amp;quot:lowbrow art&amp;quot:.</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>Eerste Anjeliersdwarsstraat 36</t>
         </is>
-      </c>
-      <c r="H100" t="n">
-        <v>52.377851</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4.883504</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -6199,41 +6199,41 @@
           <t>ea44d135-ecd2-4f54-90a6-8c2034b64be4</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>52.361354</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.886539</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>Galerie Alex Dani?ls ? Reflex Amsterdam</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Het werk van zowel jong hedendaags talent als gevestigde kunstenaars hangt hier naast elkaar. Je treft hier naast schilderijen ook fotografie aan.</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Gallery Alex Dani?ls ? Reflex Amsterdam</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Alex Dani?ls represents works from young contemporary artists  as well as the more established artist  focusing mostly on painting and photography.</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>Weteringschans 79A</t>
         </is>
-      </c>
-      <c r="H101" t="n">
-        <v>52.361354</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4.886539</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -6257,41 +6257,41 @@
           <t>0409c302-180b-4292-8678-fc40957dbe39</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>52.372704</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4.880602</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>Radar Architecture &amp; Art</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>Architect Marco di Piaggi heeft een voorliefde voor underground muziek en avantgardistische kunst. Hij richtte daarom in 2008 Radar Architecture &amp; Art op aan de Rozengracht. Hier vind je street art en werk van lokale kunstenaars.</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Radar Architecture &amp; Art</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>This unassuming Rozengraght gallery was established in 2008 by architect Marco di Piaggi.</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>Eerste Rozendwarsstraat 17</t>
         </is>
-      </c>
-      <c r="H102" t="n">
-        <v>52.372704</v>
-      </c>
-      <c r="I102" t="n">
-        <v>4.880602</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -6315,41 +6315,41 @@
           <t>c0f82af6-5e72-40fd-b430-de8d847f8fe4</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>52.373871</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4.896005</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>w139</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Het voormalige theater midden op de Wallen biedt sinds 1979 een platform voor kunstzinnig jong talent. De industri?le ruimte heeft nog altijd de punk rock sfeer van weleer.</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>w139</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Originally a theatre in the heart of the red light district  this building was squatted in 1979 and has since grown into an always-reliable platform for the city's young artistic community.</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>Warmoesstraat 139</t>
         </is>
-      </c>
-      <c r="H103" t="n">
-        <v>52.373871</v>
-      </c>
-      <c r="I103" t="n">
-        <v>4.896005</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -6373,41 +6373,41 @@
           <t>eb62f7d7-1076-4982-83f3-3db8e9ceecf7</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>52.370445</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4.883329</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>de Glaswerkplaats</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>de Glaswerkplaats is een winkel / atelier / galerie gevestigd in de 9 straatjes. Hoewel deze dagen de commerci?le merken in dit gebied heersen  onderscheidt de Glaswerkplaats zich met ambacht  cultuur en moderne kunst.</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>de Glaswerkplaats</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>De Glaswerkplaats is a shop  studio and gallery located in the Negen Straatjes (9 Streets). In an area filled with well-known brands  de Glaswerkplaats stands out for its dedication to artisanship  traditional culture and modern art.</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>Berenstraat 41</t>
         </is>
-      </c>
-      <c r="H104" t="n">
-        <v>52.370445</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4.883329</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -6431,41 +6431,41 @@
           <t>afed18f1-c1e4-4dab-9ce4-da8f4f05feee</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>52.366862</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.868855</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>Beeldend Gesproken</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t xml:space="preserve">Bij Beeldend Gesproken in Amsterdam huur je kunst van hoge kwaliteit voor een leuke prijs. Als sociale onderneming vertegenwoordigt Beeldend Gesproken kunstenaars voor wie het lastig is om op eigen kracht deel te nemen aan het kunstcircuit. </t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>Beeldend Gesproken</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t xml:space="preserve">Amsterdam gallery Beeldend Gesproken is a great location to find outstanding art at an affordable price. </t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>Hannie Dankbaarpassage 23</t>
         </is>
-      </c>
-      <c r="H105" t="n">
-        <v>52.366862</v>
-      </c>
-      <c r="I105" t="n">
-        <v>4.868855</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -6489,41 +6489,41 @@
           <t>2fa2a483-d07c-4f3c-8968-151a377ab4fe</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>52.315495</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.955534</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>CBK Zuidoost</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t xml:space="preserve">Het Centrum Beeldende Kunst Zuidoost (CBK Zuidoost) is al meer dan 25 jaar h?t expertisecentrum voor actuele beeldende kunst met interculturele accenten. CBK Zuidoost brengt kunst bij het grote publiek door onder meer  tentoonstellingen  kunstuitleencollectie  kunstlessen  workshops. Het programma is gebaseerd op actuele ontwikkelingen in de samenleving. </t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>CBK Zuidoost</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t xml:space="preserve">For over 25 years  Centrum Beeldende Kunst Zuidoost (Centre for Visual Arts Southeast) is the place to be for contemporary art with cultural accents. The centre bring art to the general public by exhibitions  a collection of rental art  art education  artist-in-residence  commissions  and debates. The programme is based on current developments in society. </t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>Anton de Komplein 120</t>
         </is>
-      </c>
-      <c r="H106" t="n">
-        <v>52.315495</v>
-      </c>
-      <c r="I106" t="n">
-        <v>4.955534</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -6547,41 +6547,41 @@
           <t>6724ce68-1ae4-4011-9841-de028f542408</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>52.370287</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.884359</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>Dutch Accent</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Dutch Accent is een galerie ?n een winkel in het centrum van Amsterdam. Hier vind je kunst  exclusieve cadeaus en souvenirs.</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>Dutch Accent</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t xml:space="preserve">A good stop for souvenirs that go beyond traditional Delftware mementoes and slogan t-shirts  Dutch Accent  located in the centre of Amsterdam  is both a gallery and a shop offering art  exclusive gifts and souvenirs. </t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>Berenstraat 41</t>
         </is>
-      </c>
-      <c r="H107" t="n">
-        <v>52.370287</v>
-      </c>
-      <c r="I107" t="n">
-        <v>4.884359</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -6605,41 +6605,41 @@
           <t>3def6b0e-ed35-44aa-80c9-86220dcd2c10</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>52.36052</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.886472</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>De Portretwinkel</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Sinds 1994 is De Portretwinkel h?t adres voor Kunst in Opdracht. Hier krijg je goed advies over de mogelijkheden voor een portret van je partner  (klein)kinderen  collega  directie  van jezelf of zelfs van je huisdier.</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>De Portretwinkel</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>De Portretwinkel on Amsterdam's Prinsengracht connects artists and those that want their portrait painted.</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>Stadhouderskade 42</t>
         </is>
-      </c>
-      <c r="H108" t="n">
-        <v>52.36052</v>
-      </c>
-      <c r="I108" t="n">
-        <v>4.886472</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -6663,41 +6663,41 @@
           <t>ace90f33-5b52-450d-87ba-274dc3cae4be</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>52.367073</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.938826</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>P//////AKT Project Space</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>P/////AKT is een publieke tentoonstellingsruimte voor beeldende kunst. P/////AKT organiseert grootschalige solopresentaties en biedt een platform  voor uitzonderlijk en zich ontwikkelend talent. Deze kunstenaars krijgen zo de gelegenheid om hun werk aan een relevant publiek te presenteren. Daarnaast brengt P////AKT regelmatig publicaties uit en organiseert lezingen  performances en screenings.</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>P//////AKT Project Space</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Amsterdam-based P/////AKT is an exhibition space for contemporary art. It organises large-scale solo presentations that aim to give viewers an insight into the artists' minds.</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>Zeeburgerpad 53</t>
         </is>
-      </c>
-      <c r="H109" t="n">
-        <v>52.367073</v>
-      </c>
-      <c r="I109" t="n">
-        <v>4.938826</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -6721,37 +6721,37 @@
           <t>a02e4738-6b73-4537-81cb-5489493ea3b3</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>52.400623</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.89227</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>Soci?teit Sexyland</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t xml:space="preserve">Amsterdam is een kunstenaarssoci?teit rijker. Op de NDSM-werf in Amsterdam-Noord op steenworp afstand van de pont opent het meest gevarieerde clubhuis van de stad  Soci?teit Sexyland  haar deuren.  </t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>Soci?teit Sexyland</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>Ms. van Riemsdijkweg  39</t>
         </is>
-      </c>
-      <c r="H110" t="n">
-        <v>52.400623</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4.89227</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -6775,41 +6775,41 @@
           <t>32415554-12d5-4e32-9349-eab607f5637e</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>52.362093</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.895765</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>Galerie Lemaire</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>Galerie Lemaire is al 80 jaar gespecialiseerd in etnografica. Opgericht door grootvader Louis Lemaire in 1933 in de Leidsestraat. Inmiddels is het de derde generatie Lemaire die de galerie runt.</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>Galerie Lemaire</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>Amsterdam?s Galerie Lemaire is a gallery dedicated to precious works of tribal art. You can view an impressive collection of masks  statues  textiles  jewellery and other exquisite artefacts.</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>Reguliersgracht 80</t>
         </is>
-      </c>
-      <c r="H111" t="n">
-        <v>52.362093</v>
-      </c>
-      <c r="I111" t="n">
-        <v>4.895765</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -6833,41 +6833,41 @@
           <t>c05db56f-9d48-4e63-a630-69e6dd9c7366</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>52.366665</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.899517</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>Kryon Art Gallery</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t xml:space="preserve">Kryon Art Gallery is een nieuwe galerie aan de Amstel  in het centrum van Amsterdam  recht tegenover de Nationale Opera &amp; Ballet. De galerie biedt verschillende soorten visuele kunst zoals schilderijen  fotografie  beelden en sieraden. Deze kunst is gemaakt door gevestigde kunstenaars en opkomend talent van over de hele wereld. </t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>Kryon Art Gallery</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>Art enthusiasts gather at Kryon Art Gallery to discuss art  life and philosophy while admiring the work of international artists and up-and-coming talent.</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>Amstel 182A</t>
         </is>
-      </c>
-      <c r="H112" t="n">
-        <v>52.366665</v>
-      </c>
-      <c r="I112" t="n">
-        <v>4.899517</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -6891,41 +6891,41 @@
           <t>b1cea8fe-962c-4527-835f-6f4237d18830</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>52.368862</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.891755</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>Maatschappij Arti et Amicitiae</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>Maatschappij Arti et Amicitiae is een kunstenaarsvereniging  opgericht in 1839. De vereniging van beeldend kunstenaars en kunstlievende leden is een plek waar kunstenaars en ge?nteresseerden elkaar kunnen ontmoeten in een markant gebouw aan het Rokin in het centrum van Amsterdam. Het gebouw bevat een besloten 19de-eeuwse soci?teit met het interieur van architect Berlage en monumentale tentoonstellingszalen.</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>Maatschappij Arti et Amicitiae (art society)</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t xml:space="preserve">Maatschappij Arti et Amicitiae is a society for the arts  founded in 1839. This association unites visual artists and art lovers at an impressive building on the Rokin in the centre of Amsterdam.  The building houses private meeting areas for the society that date back to the 19th century  as well as monumental exhibition spaces. The interior design was done by architect Berlage.  </t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>Rokin 112</t>
         </is>
-      </c>
-      <c r="H113" t="n">
-        <v>52.368862</v>
-      </c>
-      <c r="I113" t="n">
-        <v>4.891755</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -6949,41 +6949,41 @@
           <t>2825d543-31d8-4b4d-8d0a-9523773861be</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>52.369138</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.917682</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>Galerie Franzis Engels</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>Deze bijzondere galerie in een ruim  modern pand in het centrum van Amsterdam  telt vier verdiepingen. Galerie Franzis Engels presenteert hedendaagse kunst van ruim 25 kunstenaars van alle leeftijden en disciplines in een modern pand in het centrum van Amsterdam. De galerie neemt deel aan diverse nationale en internationale kunstbeurzen.  Door de eigenzinnige keuze voor kunstenaars die experimenteren met nieuwe materialen en beeldtalen heeft de galerie zich in korte tijd een plek in de internationale kunstwereld veroverd.</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>Galerie Franzis Engels</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t xml:space="preserve">Franzis Engels is a welcoming art gallery in the centre of Amsterdam. </t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>Nieuwevaart 200</t>
         </is>
-      </c>
-      <c r="H114" t="n">
-        <v>52.369138</v>
-      </c>
-      <c r="I114" t="n">
-        <v>4.917682</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -7007,41 +7007,41 @@
           <t>748052f6-1457-42e9-b686-184f434bc2b0</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>52.383063</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.903094</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>Framer Framed</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Framer Framed is een platform voor hedendaagse kunst. In de expositieruimte in de Tolhuistuin in Amsterdam-Noord zijn 8 maanden per jaar wisselende exposities te zien. Naast elke tentoonstelling vindt een verdiepend interdisciplinair publieksprogramma plaats  bestaande uit artist talks  lezingen  filmvertoningen en performances.</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>Framer Framed</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Framer Framed is a platform for contemporary art  with an exhibition space in the Tolhuistuin in vibrant Amsterdam North.</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>IJpromenade 2</t>
         </is>
-      </c>
-      <c r="H115" t="n">
-        <v>52.383063</v>
-      </c>
-      <c r="I115" t="n">
-        <v>4.903094</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -7065,41 +7065,41 @@
           <t>b7359e1f-3ee9-44b9-a9f1-4c9571a8755c</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>52.36052</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.886472</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>Morren Galleries</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>Morren Galleries is gevestigd op twee locaties: in Utrecht en in Amsterdam. Morren Galleries Amsterdam is sinds kort de directe buur van het Rijksmuseum (hoek Jan Luijkenstraat - Stadhouderskade)  en maakt onderdeel uit van het bruisende Museumkwartier. De galerie is gerenommeerd om haar hoge kwaliteit hedendaagse kunst en exposeert nationale en internationale kunstenaars. Van realistisch werk in hoogwaardige schilderstechnieken tot moderne fotografie. Daarnaast zijn er tentoonstellingen met monumentaal beeldhouwwerk.</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>Morren Galleries</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>This gallery has branches in both Amsterdam and Utrecht and specialises in contemporary figurative art.</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>Stadhouderskade 42</t>
         </is>
-      </c>
-      <c r="H116" t="n">
-        <v>52.36052</v>
-      </c>
-      <c r="I116" t="n">
-        <v>4.886472</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -7123,41 +7123,41 @@
           <t>38532236-439e-4b30-a324-b6a0ee3633f0</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>52.370601</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.879857</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>Wim van Krimpen</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t xml:space="preserve">Wim van Krimpen is een van de meest gewaardeerde museumdirecteuren van Nederland. Vanaf 1985 tot en met 1990 directeur en drijvende kracht van de KunstRAI. Daarna kwamen Jaap Witzenhausen (1991)  Erik Hermida (1992-2002)  Anneke Oele (2003-2010) &amp; Edo Dijksterhuis 2011-2012) Vanaf 2012 wordt de beurs weer geleid door Erik Hermida (productie) samen met Mark Slegers (inhoud). </t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>Wim van Krimpen</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>Wim van Krimpen has been respected for decades as one of the most headstrong museum directors in the Netherlands and was till 2012 also one of the driving forces behind the KunstRai art fair. Renowned internationally as an art collector  his own Jordaan gallery specialises in contemporary art.</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>Hazenstraat 20</t>
         </is>
-      </c>
-      <c r="H117" t="n">
-        <v>52.370601</v>
-      </c>
-      <c r="I117" t="n">
-        <v>4.879857</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -7181,41 +7181,41 @@
           <t>37be150c-c699-42ad-b591-2b4d7cfdf9f1</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>52.37797</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.897046</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>5&amp;33 Kunstgalerij</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Bezoek de kunstgalerij in de kelder van art?otel amsterdam. De exposities zijn gratis en voor iedereen dagelijks toegankelijk.</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>5&amp;33 Kunstgalerij</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t xml:space="preserve">This multi-purpose creative space  located in the basement of the art?otel amsterdam  offers a programme of rotating exhibitions  cultural and artistic events and regular social nights. </t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>Martelaarsgracht</t>
         </is>
-      </c>
-      <c r="H118" t="n">
-        <v>52.37797</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4.897046</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -7239,41 +7239,41 @@
           <t>d1a349c4-d8eb-45a7-a3ef-26d020799c3c</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>52.370245</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.864252</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>Art Gallery Salon West</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t xml:space="preserve">Wil je niet alleen kunst kijken of kopen  maar ook van gedachten wisselen met de makers bezoek dan Art Gallery Salon West aande Admiraal de Ruijterweg in Amsterdam-West.  </t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>Art Gallery Salon West</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>Art Gallery Salon West at the Admiraal de Ruijterweg 9 in Amsterdam-West is a thriving Art Gallery where you can not only admire and acquire art  but also watch the Artists create it and engange in conversation with them about their work.</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>Admiraal de Ruijterweg 9</t>
         </is>
-      </c>
-      <c r="H119" t="n">
-        <v>52.370245</v>
-      </c>
-      <c r="I119" t="n">
-        <v>4.864252</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
@@ -7293,41 +7293,41 @@
           <t>2623593b-52d9-4497-9cec-2ef5dc44f5c2</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>52.384154</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.891599</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>Ateliers Westerdok</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>Ateliers Westerdok is een culturele ontmoetingsplek waar diverse activiteiten worden aangeboden. Op het atelier is iedereen die wil leren tekenen en schilderen van harte welkom. Er is een uitgebreid cursusaanbod voor beginners en gevorderden onder leiding van hedendaagse kunstenaars. Beroepskunstenaars en creatieven die zelfstandig willen werken kunnen terecht bij ??n van de werkplaatsen met model. Voor kinderen is er de Kinderakademie  die wekelijkse lesprogramma?s en Vakantiekunstweken verzorgt.</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>Ateliers Westerdok</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t xml:space="preserve">These studios in the centre of Amsterdam function as a cultural    meeting place  offering a variety of activities such as art classes and kid's workshops. </t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>AMSTERDAM</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>Westerdok 318</t>
         </is>
-      </c>
-      <c r="H120" t="n">
-        <v>52.384154</v>
-      </c>
-      <c r="I120" t="n">
-        <v>4.891599</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
